--- a/Inputs/DATA_brut.xlsx
+++ b/Inputs/DATA_brut.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damon\OneDrive\Documents\Unnif\Master\Mémoire\code\MyDispaSET-SideTools-EnergyScope\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DispaSET-SideTools_EnergyScope\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437F4998-925E-4BC4-AC83-489CEDCD53D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3435519B-9A86-49A0-A2F2-C15F7FE31A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3.1 layers_in_out" sheetId="1" r:id="rId1"/>
-    <sheet name="3.3 STO_sto_eff_in" sheetId="2" r:id="rId2"/>
-    <sheet name="3.3 STO_sto_eff_out" sheetId="3" r:id="rId3"/>
-    <sheet name="3.3 STO_sto_caracteristics" sheetId="4" r:id="rId4"/>
+    <sheet name="2.1 RESOURCES" sheetId="6" r:id="rId1"/>
+    <sheet name="3.1 layers_in_out" sheetId="1" r:id="rId2"/>
+    <sheet name="3.2 TECH" sheetId="5" r:id="rId3"/>
+    <sheet name="3.3 STO_sto_eff_in" sheetId="2" r:id="rId4"/>
+    <sheet name="3.3 STO_sto_eff_out" sheetId="3" r:id="rId5"/>
+    <sheet name="3.3 STO_sto_caracteristics" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13194,6 +13197,3014 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="README"/>
+      <sheetName val="1.1 Time Series"/>
+      <sheetName val="1.2 c_p_t"/>
+      <sheetName val="2.1 RESOURCES"/>
+      <sheetName val="2.2 User defined"/>
+      <sheetName val="2.3 EUD"/>
+      <sheetName val="3.1 layers_in_out"/>
+      <sheetName val="3.2 TECH"/>
+      <sheetName val="3.3 STO"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>{RESOURCES}</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">gwp_op [ktCO2-eq./GWh]  </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>c_op [M€/GWh]</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v xml:space="preserve">CO2_op [ktCO2-eq./GWh]  </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ELECTRICITY</v>
+          </cell>
+          <cell r="B3">
+            <v>1000000</v>
+          </cell>
+          <cell r="C3">
+            <v>0.48180000000000001</v>
+          </cell>
+          <cell r="D3">
+            <v>8.4335190715508199E-2</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>GASOLINE</v>
+          </cell>
+          <cell r="B4">
+            <v>1000000</v>
+          </cell>
+          <cell r="C4">
+            <v>0.3448</v>
+          </cell>
+          <cell r="D4">
+            <v>8.236604430198545E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>DIESEL</v>
+          </cell>
+          <cell r="B5">
+            <v>1000000</v>
+          </cell>
+          <cell r="C5">
+            <v>0.31480000000000002</v>
+          </cell>
+          <cell r="D5">
+            <v>7.9743788033768068E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>0.27</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BIOETHANOL</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>8.236604430198545E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BIODIESEL</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>7.9743788033768068E-2</v>
+          </cell>
+          <cell r="E7">
+            <v>0.27</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>LFO</v>
+          </cell>
+          <cell r="B8">
+            <v>1000000</v>
+          </cell>
+          <cell r="C8">
+            <v>0.3115</v>
+          </cell>
+          <cell r="D8">
+            <v>5.6740267478883673E-2</v>
+          </cell>
+          <cell r="E8">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>NG</v>
+          </cell>
+          <cell r="B9">
+            <v>1000000</v>
+          </cell>
+          <cell r="C9">
+            <v>0.2666</v>
+          </cell>
+          <cell r="D9">
+            <v>4.1454117647058822E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>SNG</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>4.1454117647058822E-2</v>
+          </cell>
+          <cell r="E10">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>WOOD</v>
+          </cell>
+          <cell r="B11">
+            <v>16484</v>
+          </cell>
+          <cell r="C11">
+            <v>1.18E-2</v>
+          </cell>
+          <cell r="D11">
+            <v>2.664E-2</v>
+          </cell>
+          <cell r="E11">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>WET_BIOMASS</v>
+          </cell>
+          <cell r="B12">
+            <v>13716.9</v>
+          </cell>
+          <cell r="C12">
+            <v>1.18E-2</v>
+          </cell>
+          <cell r="D12">
+            <v>2.664E-2</v>
+          </cell>
+          <cell r="E12">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>COAL</v>
+          </cell>
+          <cell r="B13">
+            <v>33354.99944</v>
+          </cell>
+          <cell r="C13">
+            <v>0.40139999999999998</v>
+          </cell>
+          <cell r="D13">
+            <v>1.7642352941176474E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>URANIUM</v>
+          </cell>
+          <cell r="B14">
+            <v>1000000</v>
+          </cell>
+          <cell r="C14">
+            <v>3.8999999999999998E-3</v>
+          </cell>
+          <cell r="D14">
+            <v>3.8764557330677445E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>WASTE</v>
+          </cell>
+          <cell r="B15">
+            <v>9333</v>
+          </cell>
+          <cell r="C15">
+            <v>0.15010000000000001</v>
+          </cell>
+          <cell r="D15">
+            <v>2.664E-2</v>
+          </cell>
+          <cell r="E15">
+            <v>0.26</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>H2</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>SLF</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ELEC_EXPORT</v>
+          </cell>
+          <cell r="B18">
+            <v>1000000</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>CO2_EMISSIONS</v>
+          </cell>
+          <cell r="B19">
+            <v>1000000</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>RES_WIND</v>
+          </cell>
+          <cell r="B20">
+            <v>1000000</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>RES_SOLAR</v>
+          </cell>
+          <cell r="B21">
+            <v>1000000</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>RES_HYDRO</v>
+          </cell>
+          <cell r="B22">
+            <v>1000000</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>RES_GEO</v>
+          </cell>
+          <cell r="B23">
+            <v>1000000</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v xml:space="preserve">CO2_ATM </v>
+          </cell>
+          <cell r="B24">
+            <v>1000000</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v xml:space="preserve">CO2_INDUSTRY </v>
+          </cell>
+          <cell r="B25">
+            <v>1000000</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>CO2_CAPTURED</v>
+          </cell>
+          <cell r="B26">
+            <v>1000000</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>param:</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>c_inv</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>c_maint</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>gwp_constr</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>lifetime</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>c_p</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>fmin_perc</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>fmax_perc</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ELECTRICITY</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>NUCLEAR</v>
+          </cell>
+          <cell r="C2">
+            <v>4845.7346193463809</v>
+          </cell>
+          <cell r="D2">
+            <v>102.9309860473827</v>
+          </cell>
+          <cell r="E2">
+            <v>707.88</v>
+          </cell>
+          <cell r="F2">
+            <v>60</v>
+          </cell>
+          <cell r="G2">
+            <v>0.84899999999999998</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>CCGT</v>
+          </cell>
+          <cell r="C3">
+            <v>771.99175952804558</v>
+          </cell>
+          <cell r="D3">
+            <v>19.730311826950089</v>
+          </cell>
+          <cell r="E3">
+            <v>183.79</v>
+          </cell>
+          <cell r="F3">
+            <v>25</v>
+          </cell>
+          <cell r="G3">
+            <v>0.85</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>COAL_US</v>
+          </cell>
+          <cell r="C4">
+            <v>2516.7056840528139</v>
+          </cell>
+          <cell r="D4">
+            <v>29.703155726191589</v>
+          </cell>
+          <cell r="E4">
+            <v>331.6</v>
+          </cell>
+          <cell r="F4">
+            <v>35</v>
+          </cell>
+          <cell r="G4">
+            <v>0.86799999999999999</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>COAL_IGCC</v>
+          </cell>
+          <cell r="C5">
+            <v>3245.8095327277833</v>
+          </cell>
+          <cell r="D5">
+            <v>48.946530574023782</v>
+          </cell>
+          <cell r="E5">
+            <v>331.6</v>
+          </cell>
+          <cell r="F5">
+            <v>35</v>
+          </cell>
+          <cell r="G5">
+            <v>0.85599999999999998</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>PV</v>
+          </cell>
+          <cell r="C6">
+            <v>870</v>
+          </cell>
+          <cell r="D6">
+            <v>10.815</v>
+          </cell>
+          <cell r="E6">
+            <v>2081.4299999999998</v>
+          </cell>
+          <cell r="F6">
+            <v>25</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>WIND_ONSHORE</v>
+          </cell>
+          <cell r="C7">
+            <v>1040</v>
+          </cell>
+          <cell r="D7">
+            <v>2.89</v>
+          </cell>
+          <cell r="E7">
+            <v>622.85</v>
+          </cell>
+          <cell r="F7">
+            <v>30</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>WIND_OFFSHORE</v>
+          </cell>
+          <cell r="C8">
+            <v>1930</v>
+          </cell>
+          <cell r="D8">
+            <v>9.7799999999999994</v>
+          </cell>
+          <cell r="E8">
+            <v>622.85</v>
+          </cell>
+          <cell r="F8">
+            <v>30</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>HYDRO_RIVER</v>
+          </cell>
+          <cell r="C9">
+            <v>5044.9199363236257</v>
+          </cell>
+          <cell r="D9">
+            <v>50.444798202078843</v>
+          </cell>
+          <cell r="E9">
+            <v>1262.82</v>
+          </cell>
+          <cell r="F9">
+            <v>40</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>GEOTHERMAL</v>
+          </cell>
+          <cell r="C10">
+            <v>7488</v>
+          </cell>
+          <cell r="D10">
+            <v>142.27199999999999</v>
+          </cell>
+          <cell r="E10">
+            <v>24929.09</v>
+          </cell>
+          <cell r="F10">
+            <v>30</v>
+          </cell>
+          <cell r="G10">
+            <v>0.86</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>HEAT_HIGH_T
+(INDUSTRY)</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>IND_COGEN_GAS</v>
+          </cell>
+          <cell r="C11">
+            <v>1408.0344601554452</v>
+          </cell>
+          <cell r="D11">
+            <v>92.611667759153477</v>
+          </cell>
+          <cell r="E11">
+            <v>1024.32</v>
+          </cell>
+          <cell r="F11">
+            <v>25</v>
+          </cell>
+          <cell r="G11">
+            <v>0.85</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>IND_COGEN_WOOD</v>
+          </cell>
+          <cell r="C12">
+            <v>1080.7940818428692</v>
+          </cell>
+          <cell r="D12">
+            <v>40.490682648188034</v>
+          </cell>
+          <cell r="E12">
+            <v>165.33</v>
+          </cell>
+          <cell r="F12">
+            <v>25</v>
+          </cell>
+          <cell r="G12">
+            <v>0.85</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>IND_COGEN_WASTE</v>
+          </cell>
+          <cell r="C13">
+            <v>2927.8677778818242</v>
+          </cell>
+          <cell r="D13">
+            <v>111.32128476449104</v>
+          </cell>
+          <cell r="E13">
+            <v>647.82000000000005</v>
+          </cell>
+          <cell r="F13">
+            <v>25</v>
+          </cell>
+          <cell r="G13">
+            <v>0.85</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>IND_BOILER_GAS</v>
+          </cell>
+          <cell r="C14">
+            <v>58.891281955239251</v>
+          </cell>
+          <cell r="D14">
+            <v>1.1798857570933607</v>
+          </cell>
+          <cell r="E14">
+            <v>12.32</v>
+          </cell>
+          <cell r="F14">
+            <v>17</v>
+          </cell>
+          <cell r="G14">
+            <v>0.95</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>IND_BOILER_WOOD</v>
+          </cell>
+          <cell r="C15">
+            <v>115.17932390673283</v>
+          </cell>
+          <cell r="D15">
+            <v>2.3035864781346564</v>
+          </cell>
+          <cell r="E15">
+            <v>28.87</v>
+          </cell>
+          <cell r="F15">
+            <v>17</v>
+          </cell>
+          <cell r="G15">
+            <v>0.9</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>IND_BOILER_OIL</v>
+          </cell>
+          <cell r="C16">
+            <v>54.855323532165926</v>
+          </cell>
+          <cell r="D16">
+            <v>1.1798857570933607</v>
+          </cell>
+          <cell r="E16">
+            <v>12.32</v>
+          </cell>
+          <cell r="F16">
+            <v>17</v>
+          </cell>
+          <cell r="G16">
+            <v>0.95</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>IND_BOILER_COAL</v>
+          </cell>
+          <cell r="C17">
+            <v>115.17932390673283</v>
+          </cell>
+          <cell r="D17">
+            <v>2.3035864781346564</v>
+          </cell>
+          <cell r="E17">
+            <v>48.18</v>
+          </cell>
+          <cell r="F17">
+            <v>17</v>
+          </cell>
+          <cell r="G17">
+            <v>0.9</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>IND_BOILER_WASTE</v>
+          </cell>
+          <cell r="C18">
+            <v>115.17932390673283</v>
+          </cell>
+          <cell r="D18">
+            <v>2.3035864781346564</v>
+          </cell>
+          <cell r="E18">
+            <v>28.87</v>
+          </cell>
+          <cell r="F18">
+            <v>17</v>
+          </cell>
+          <cell r="G18">
+            <v>0.9</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>IND_DIRECT_ELEC</v>
+          </cell>
+          <cell r="C19">
+            <v>332.34385242063865</v>
+          </cell>
+          <cell r="D19">
+            <v>1.5076318007304055</v>
+          </cell>
+          <cell r="E19">
+            <v>1.47</v>
+          </cell>
+          <cell r="F19">
+            <v>15</v>
+          </cell>
+          <cell r="G19">
+            <v>0.95</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>HEAT_LOW_T
+DHN</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>DHN_HP_ELEC</v>
+          </cell>
+          <cell r="C20">
+            <v>344.76074538814493</v>
+          </cell>
+          <cell r="D20">
+            <v>11.995505197115834</v>
+          </cell>
+          <cell r="E20">
+            <v>174.79</v>
+          </cell>
+          <cell r="F20">
+            <v>25</v>
+          </cell>
+          <cell r="G20">
+            <v>0.95</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>DHN_COGEN_GAS</v>
+          </cell>
+          <cell r="C21">
+            <v>1254.4901207978276</v>
+          </cell>
+          <cell r="D21">
+            <v>37.531604082779282</v>
+          </cell>
+          <cell r="E21">
+            <v>490.88</v>
+          </cell>
+          <cell r="F21">
+            <v>25</v>
+          </cell>
+          <cell r="G21">
+            <v>0.85</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>DHN_COGEN_WOOD</v>
+          </cell>
+          <cell r="C22">
+            <v>1080.7940818428692</v>
+          </cell>
+          <cell r="D22">
+            <v>40.490682648188034</v>
+          </cell>
+          <cell r="E22">
+            <v>165.33</v>
+          </cell>
+          <cell r="F22">
+            <v>25</v>
+          </cell>
+          <cell r="G22">
+            <v>0.85</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>DHN_COGEN_WASTE</v>
+          </cell>
+          <cell r="C23">
+            <v>2927.8677778818242</v>
+          </cell>
+          <cell r="D23">
+            <v>111.32128476449104</v>
+          </cell>
+          <cell r="E23">
+            <v>647.82000000000005</v>
+          </cell>
+          <cell r="F23">
+            <v>25</v>
+          </cell>
+          <cell r="G23">
+            <v>0.85</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>DHN_COGEN_WET_BIOMASS</v>
+          </cell>
+          <cell r="C24">
+            <v>2287</v>
+          </cell>
+          <cell r="D24">
+            <v>228.7</v>
+          </cell>
+          <cell r="E24">
+            <v>1024</v>
+          </cell>
+          <cell r="F24">
+            <v>25</v>
+          </cell>
+          <cell r="G24">
+            <v>0.75</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>DHN_BOILER_GAS</v>
+          </cell>
+          <cell r="C25">
+            <v>58.891281955239251</v>
+          </cell>
+          <cell r="D25">
+            <v>1.1798857570933607</v>
+          </cell>
+          <cell r="E25">
+            <v>12.32</v>
+          </cell>
+          <cell r="F25">
+            <v>17</v>
+          </cell>
+          <cell r="G25">
+            <v>0.95</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>DHN_BOILER_WOOD</v>
+          </cell>
+          <cell r="C26">
+            <v>115.17932390673283</v>
+          </cell>
+          <cell r="D26">
+            <v>2.3035864781346564</v>
+          </cell>
+          <cell r="E26">
+            <v>28.87</v>
+          </cell>
+          <cell r="F26">
+            <v>17</v>
+          </cell>
+          <cell r="G26">
+            <v>0.9</v>
+          </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
+          <cell r="I26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>DHN_BOILER_OIL</v>
+          </cell>
+          <cell r="C27">
+            <v>54.855323532165926</v>
+          </cell>
+          <cell r="D27">
+            <v>1.1798857570933607</v>
+          </cell>
+          <cell r="E27">
+            <v>12.32</v>
+          </cell>
+          <cell r="F27">
+            <v>17</v>
+          </cell>
+          <cell r="G27">
+            <v>0.95</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>DHN_DEEP_GEO</v>
+          </cell>
+          <cell r="C28">
+            <v>1500</v>
+          </cell>
+          <cell r="D28">
+            <v>57.04</v>
+          </cell>
+          <cell r="E28">
+            <v>808.76</v>
+          </cell>
+          <cell r="F28">
+            <v>30</v>
+          </cell>
+          <cell r="G28">
+            <v>0.85</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>DHN_SOLAR</v>
+          </cell>
+          <cell r="C29">
+            <v>362</v>
+          </cell>
+          <cell r="D29">
+            <v>0.433</v>
+          </cell>
+          <cell r="E29">
+            <v>221.22</v>
+          </cell>
+          <cell r="F29">
+            <v>30</v>
+          </cell>
+          <cell r="G29">
+            <v>1</v>
+          </cell>
+          <cell r="H29">
+            <v>0</v>
+          </cell>
+          <cell r="I29">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>HEAT_LOW_T
+DECEN</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>DEC_HP_ELEC</v>
+          </cell>
+          <cell r="C30">
+            <v>492.04045322595749</v>
+          </cell>
+          <cell r="D30">
+            <v>21.050660174173611</v>
+          </cell>
+          <cell r="E30">
+            <v>164.89</v>
+          </cell>
+          <cell r="F30">
+            <v>18</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>DEC_THHP_GAS</v>
+          </cell>
+          <cell r="C31">
+            <v>315.68498923120143</v>
+          </cell>
+          <cell r="D31">
+            <v>9.4671785747729178</v>
+          </cell>
+          <cell r="E31">
+            <v>381.93</v>
+          </cell>
+          <cell r="F31">
+            <v>20</v>
+          </cell>
+          <cell r="G31">
+            <v>1</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>DEC_COGEN_GAS</v>
+          </cell>
+          <cell r="C32">
+            <v>1408.0344601554452</v>
+          </cell>
+          <cell r="D32">
+            <v>92.611667759153477</v>
+          </cell>
+          <cell r="E32">
+            <v>1024.32</v>
+          </cell>
+          <cell r="F32">
+            <v>20</v>
+          </cell>
+          <cell r="G32">
+            <v>1</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>DEC_COGEN_OIL</v>
+          </cell>
+          <cell r="C33">
+            <v>1305.5623185691543</v>
+          </cell>
+          <cell r="D33">
+            <v>81.964603427287201</v>
+          </cell>
+          <cell r="E33">
+            <v>1024.32</v>
+          </cell>
+          <cell r="F33">
+            <v>20</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
+          </cell>
+          <cell r="I33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>DEC_ADVCOGEN_GAS</v>
+          </cell>
+          <cell r="C34">
+            <v>7242.2792396291779</v>
+          </cell>
+          <cell r="D34">
+            <v>144.84502294222304</v>
+          </cell>
+          <cell r="E34">
+            <v>2193.4499999999998</v>
+          </cell>
+          <cell r="F34">
+            <v>20</v>
+          </cell>
+          <cell r="G34">
+            <v>1</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>DEC_ADVCOGEN_H2</v>
+          </cell>
+          <cell r="C35">
+            <v>7242.2792396291779</v>
+          </cell>
+          <cell r="D35">
+            <v>144.84502294222304</v>
+          </cell>
+          <cell r="E35">
+            <v>2193.4499999999998</v>
+          </cell>
+          <cell r="F35">
+            <v>20</v>
+          </cell>
+          <cell r="G35">
+            <v>1</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>DEC_BOILER_GAS</v>
+          </cell>
+          <cell r="C36">
+            <v>158.53544339357617</v>
+          </cell>
+          <cell r="D36">
+            <v>4.7569997190748197</v>
+          </cell>
+          <cell r="E36">
+            <v>21.09</v>
+          </cell>
+          <cell r="F36">
+            <v>17</v>
+          </cell>
+          <cell r="G36">
+            <v>1</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>DEC_BOILER_WOOD</v>
+          </cell>
+          <cell r="C37">
+            <v>462.44030339919465</v>
+          </cell>
+          <cell r="D37">
+            <v>16.181290382994664</v>
+          </cell>
+          <cell r="E37">
+            <v>21.09</v>
+          </cell>
+          <cell r="F37">
+            <v>17</v>
+          </cell>
+          <cell r="G37">
+            <v>1</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+          <cell r="I37">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>DEC_BOILER_OIL</v>
+          </cell>
+          <cell r="C38">
+            <v>142.38224552860754</v>
+          </cell>
+          <cell r="D38">
+            <v>8.5401254799138488</v>
+          </cell>
+          <cell r="E38">
+            <v>21.09</v>
+          </cell>
+          <cell r="F38">
+            <v>17</v>
+          </cell>
+          <cell r="G38">
+            <v>1</v>
+          </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
+          <cell r="I38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>DEC_SOLAR</v>
+          </cell>
+          <cell r="C39">
+            <v>719.07481973967595</v>
+          </cell>
+          <cell r="D39">
+            <v>8.0906451914973321</v>
+          </cell>
+          <cell r="E39">
+            <v>221.22</v>
+          </cell>
+          <cell r="F39">
+            <v>20</v>
+          </cell>
+          <cell r="G39">
+            <v>1</v>
+          </cell>
+          <cell r="H39">
+            <v>0</v>
+          </cell>
+          <cell r="I39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>DEC_DIRECT_ELEC</v>
+          </cell>
+          <cell r="C40">
+            <v>39.975653151044099</v>
+          </cell>
+          <cell r="D40">
+            <v>0.17791928083153852</v>
+          </cell>
+          <cell r="E40">
+            <v>1.47</v>
+          </cell>
+          <cell r="F40">
+            <v>15</v>
+          </cell>
+          <cell r="G40">
+            <v>1</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>PUBLIC
+MOBILITY</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>TRAMWAY_TROLLEY</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>1</v>
+          </cell>
+          <cell r="G41">
+            <v>1</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+          <cell r="I41">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>BUS_COACH_DIESEL</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>1</v>
+          </cell>
+          <cell r="G42">
+            <v>1</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+          <cell r="I42">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>BUS_COACH_HYDIESEL</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+          <cell r="F43">
+            <v>1</v>
+          </cell>
+          <cell r="G43">
+            <v>1</v>
+          </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
+          <cell r="I43">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>BUS_COACH_CNG_STOICH</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+          <cell r="F44">
+            <v>1</v>
+          </cell>
+          <cell r="G44">
+            <v>1</v>
+          </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
+          <cell r="I44">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>BUS_COACH_FC_HYBRIDH2</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+          <cell r="F45">
+            <v>1</v>
+          </cell>
+          <cell r="G45">
+            <v>1</v>
+          </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
+          <cell r="I45">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>TRAIN_PUB</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+          <cell r="F46">
+            <v>1</v>
+          </cell>
+          <cell r="G46">
+            <v>1</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>PRIVATE
+MOBILITY</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>CAR_GASOLINE</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>1</v>
+          </cell>
+          <cell r="G47">
+            <v>1</v>
+          </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
+          <cell r="I47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>CAR_DIESEL</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>1</v>
+          </cell>
+          <cell r="G48">
+            <v>1</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+          <cell r="I48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>CAR_NG</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>1</v>
+          </cell>
+          <cell r="G49">
+            <v>1</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>CAR_HEV</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>1</v>
+          </cell>
+          <cell r="G50">
+            <v>1</v>
+          </cell>
+          <cell r="H50">
+            <v>0</v>
+          </cell>
+          <cell r="I50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>CAR_PHEV</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>1</v>
+          </cell>
+          <cell r="G51">
+            <v>1</v>
+          </cell>
+          <cell r="H51">
+            <v>0</v>
+          </cell>
+          <cell r="I51">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>CAR_BEV</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>1</v>
+          </cell>
+          <cell r="G52">
+            <v>1</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>CAR_FUEL_CELL</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>1</v>
+          </cell>
+          <cell r="G53">
+            <v>1</v>
+          </cell>
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>FREIGHT</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>TRAIN_FREIGHT</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+          <cell r="F54">
+            <v>1</v>
+          </cell>
+          <cell r="G54">
+            <v>1</v>
+          </cell>
+          <cell r="H54">
+            <v>0</v>
+          </cell>
+          <cell r="I54">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>BOAT_FREIGHT_DIESEL</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>1</v>
+          </cell>
+          <cell r="G55">
+            <v>1</v>
+          </cell>
+          <cell r="H55">
+            <v>0</v>
+          </cell>
+          <cell r="I55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>BOAT_FREIGHT_NG</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>1</v>
+          </cell>
+          <cell r="G56">
+            <v>1</v>
+          </cell>
+          <cell r="H56">
+            <v>0</v>
+          </cell>
+          <cell r="I56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>TRUCK_DIESEL</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>1</v>
+          </cell>
+          <cell r="G57">
+            <v>1</v>
+          </cell>
+          <cell r="H57">
+            <v>0</v>
+          </cell>
+          <cell r="I57">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>TRUCK_FUEL_CELL</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>1</v>
+          </cell>
+          <cell r="G58">
+            <v>1</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>TRUCK_NG</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+          <cell r="F59">
+            <v>1</v>
+          </cell>
+          <cell r="G59">
+            <v>1</v>
+          </cell>
+          <cell r="H59">
+            <v>0</v>
+          </cell>
+          <cell r="I59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>NON
+ENERGY</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>NON_ENERGY_OIL</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+          <cell r="F60">
+            <v>1</v>
+          </cell>
+          <cell r="G60">
+            <v>1</v>
+          </cell>
+          <cell r="H60">
+            <v>0</v>
+          </cell>
+          <cell r="I60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>NON_ENERGY_NG</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+          <cell r="D61">
+            <v>0</v>
+          </cell>
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+          <cell r="F61">
+            <v>1</v>
+          </cell>
+          <cell r="G61">
+            <v>1</v>
+          </cell>
+          <cell r="H61">
+            <v>0</v>
+          </cell>
+          <cell r="I61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>INFRASTRUCTURE</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>EFFICIENCY</v>
+          </cell>
+          <cell r="C62">
+            <v>3320</v>
+          </cell>
+          <cell r="D62">
+            <v>0</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>1</v>
+          </cell>
+          <cell r="G62">
+            <v>1</v>
+          </cell>
+          <cell r="H62">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>DHN</v>
+          </cell>
+          <cell r="C63">
+            <v>825.88257327465112</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>60</v>
+          </cell>
+          <cell r="G63">
+            <v>1</v>
+          </cell>
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v xml:space="preserve">GRID </v>
+          </cell>
+          <cell r="C64">
+            <v>74919.063546366742</v>
+          </cell>
+          <cell r="D64">
+            <v>0</v>
+          </cell>
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+          <cell r="F64">
+            <v>80</v>
+          </cell>
+          <cell r="G64">
+            <v>1</v>
+          </cell>
+          <cell r="H64">
+            <v>0</v>
+          </cell>
+          <cell r="I64">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>H2_ELECTROLYSIS</v>
+          </cell>
+          <cell r="C65">
+            <v>307.58497986702878</v>
+          </cell>
+          <cell r="D65">
+            <v>30.761307238505477</v>
+          </cell>
+          <cell r="E65">
+            <v>0</v>
+          </cell>
+          <cell r="F65">
+            <v>15</v>
+          </cell>
+          <cell r="G65">
+            <v>0.9</v>
+          </cell>
+          <cell r="H65">
+            <v>0</v>
+          </cell>
+          <cell r="I65">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>H2_NG</v>
+          </cell>
+          <cell r="C66">
+            <v>681.24356213128567</v>
+          </cell>
+          <cell r="D66">
+            <v>64.434872179042983</v>
+          </cell>
+          <cell r="E66">
+            <v>0</v>
+          </cell>
+          <cell r="F66">
+            <v>25</v>
+          </cell>
+          <cell r="G66">
+            <v>0.86</v>
+          </cell>
+          <cell r="H66">
+            <v>0</v>
+          </cell>
+          <cell r="I66">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>H2_BIOMASS</v>
+          </cell>
+          <cell r="C67">
+            <v>2525.3862721228579</v>
+          </cell>
+          <cell r="D67">
+            <v>195.70184474201704</v>
+          </cell>
+          <cell r="E67">
+            <v>0</v>
+          </cell>
+          <cell r="F67">
+            <v>25</v>
+          </cell>
+          <cell r="G67">
+            <v>0.86</v>
+          </cell>
+          <cell r="H67">
+            <v>0</v>
+          </cell>
+          <cell r="I67">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>GASIFICATION_SNG</v>
+          </cell>
+          <cell r="C68">
+            <v>2743.8055997752599</v>
+          </cell>
+          <cell r="D68">
+            <v>139.93819646034271</v>
+          </cell>
+          <cell r="E68">
+            <v>0</v>
+          </cell>
+          <cell r="F68">
+            <v>25</v>
+          </cell>
+          <cell r="G68">
+            <v>0.85</v>
+          </cell>
+          <cell r="H68">
+            <v>0</v>
+          </cell>
+          <cell r="I68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>PYROLYSIS</v>
+          </cell>
+          <cell r="C69">
+            <v>1344.2176233729749</v>
+          </cell>
+          <cell r="D69">
+            <v>67.206667290944836</v>
+          </cell>
+          <cell r="E69">
+            <v>0</v>
+          </cell>
+          <cell r="F69">
+            <v>25</v>
+          </cell>
+          <cell r="G69">
+            <v>0.85</v>
+          </cell>
+          <cell r="H69">
+            <v>0</v>
+          </cell>
+          <cell r="I69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>ATM_CCS</v>
+          </cell>
+          <cell r="C70">
+            <v>5160</v>
+          </cell>
+          <cell r="D70">
+            <v>129.6</v>
+          </cell>
+          <cell r="E70">
+            <v>0</v>
+          </cell>
+          <cell r="F70">
+            <v>40</v>
+          </cell>
+          <cell r="G70">
+            <v>1</v>
+          </cell>
+          <cell r="H70">
+            <v>0</v>
+          </cell>
+          <cell r="I70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>INDUSTRY_CCS</v>
+          </cell>
+          <cell r="C71">
+            <v>2580</v>
+          </cell>
+          <cell r="D71">
+            <v>64.8</v>
+          </cell>
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+          <cell r="F71">
+            <v>40</v>
+          </cell>
+          <cell r="G71">
+            <v>1</v>
+          </cell>
+          <cell r="H71">
+            <v>0</v>
+          </cell>
+          <cell r="I71">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>SYN_METHANOLATION</v>
+          </cell>
+          <cell r="C72">
+            <v>2750</v>
+          </cell>
+          <cell r="D72">
+            <v>54.5</v>
+          </cell>
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+          <cell r="F72">
+            <v>20</v>
+          </cell>
+          <cell r="G72">
+            <v>0.95</v>
+          </cell>
+          <cell r="H72">
+            <v>0</v>
+          </cell>
+          <cell r="I72">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>SYN_METHANATION</v>
+          </cell>
+          <cell r="C73">
+            <v>1888</v>
+          </cell>
+          <cell r="D73">
+            <v>74.599999999999994</v>
+          </cell>
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+          <cell r="F73">
+            <v>40</v>
+          </cell>
+          <cell r="G73">
+            <v>1</v>
+          </cell>
+          <cell r="H73">
+            <v>0</v>
+          </cell>
+          <cell r="I73">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>BIOMETHANATION</v>
+          </cell>
+          <cell r="C74">
+            <v>1661</v>
+          </cell>
+          <cell r="D74">
+            <v>14</v>
+          </cell>
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+          <cell r="F74">
+            <v>20</v>
+          </cell>
+          <cell r="G74">
+            <v>0.85</v>
+          </cell>
+          <cell r="H74">
+            <v>0</v>
+          </cell>
+          <cell r="I74">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>SLF_TO_DIESEL</v>
+          </cell>
+          <cell r="C75">
+            <v>0</v>
+          </cell>
+          <cell r="D75">
+            <v>0</v>
+          </cell>
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+          <cell r="F75">
+            <v>1</v>
+          </cell>
+          <cell r="G75">
+            <v>1</v>
+          </cell>
+          <cell r="H75">
+            <v>0</v>
+          </cell>
+          <cell r="I75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>SLF_TO_GASOLINE</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+          <cell r="D76">
+            <v>0</v>
+          </cell>
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+          <cell r="F76">
+            <v>1</v>
+          </cell>
+          <cell r="G76">
+            <v>1</v>
+          </cell>
+          <cell r="H76">
+            <v>0</v>
+          </cell>
+          <cell r="I76">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>SLF_TO_LFO</v>
+          </cell>
+          <cell r="C77">
+            <v>0</v>
+          </cell>
+          <cell r="D77">
+            <v>0</v>
+          </cell>
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+          <cell r="F77">
+            <v>1</v>
+          </cell>
+          <cell r="G77">
+            <v>1</v>
+          </cell>
+          <cell r="H77">
+            <v>0</v>
+          </cell>
+          <cell r="I77">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>STORAGE</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>BATT_LI</v>
+          </cell>
+          <cell r="C78">
+            <v>302</v>
+          </cell>
+          <cell r="D78">
+            <v>0.62</v>
+          </cell>
+          <cell r="E78">
+            <v>61.3</v>
+          </cell>
+          <cell r="F78">
+            <v>15</v>
+          </cell>
+          <cell r="G78">
+            <v>1</v>
+          </cell>
+          <cell r="H78">
+            <v>0</v>
+          </cell>
+          <cell r="I78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>BEV_BATT</v>
+          </cell>
+          <cell r="C79">
+            <v>0</v>
+          </cell>
+          <cell r="D79">
+            <v>0</v>
+          </cell>
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+          <cell r="F79">
+            <v>1</v>
+          </cell>
+          <cell r="G79">
+            <v>1</v>
+          </cell>
+          <cell r="H79">
+            <v>0</v>
+          </cell>
+          <cell r="I79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>PHEV_BATT</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+          <cell r="D80">
+            <v>0</v>
+          </cell>
+          <cell r="E80">
+            <v>0</v>
+          </cell>
+          <cell r="F80">
+            <v>1</v>
+          </cell>
+          <cell r="G80">
+            <v>1</v>
+          </cell>
+          <cell r="H80">
+            <v>0</v>
+          </cell>
+          <cell r="I80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>PHS</v>
+          </cell>
+          <cell r="C81">
+            <v>58.8</v>
+          </cell>
+          <cell r="D81">
+            <v>0</v>
+          </cell>
+          <cell r="E81">
+            <v>8.33</v>
+          </cell>
+          <cell r="F81">
+            <v>50</v>
+          </cell>
+          <cell r="G81">
+            <v>1</v>
+          </cell>
+          <cell r="H81">
+            <v>0</v>
+          </cell>
+          <cell r="I81">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v xml:space="preserve">TS_DEC_DIRECT_ELEC </v>
+          </cell>
+          <cell r="C82">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D82">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E82">
+            <v>0</v>
+          </cell>
+          <cell r="F82">
+            <v>25</v>
+          </cell>
+          <cell r="G82">
+            <v>1</v>
+          </cell>
+          <cell r="H82">
+            <v>0</v>
+          </cell>
+          <cell r="I82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v xml:space="preserve">TS_DEC_HP_ELEC </v>
+          </cell>
+          <cell r="C83">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D83">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E83">
+            <v>0</v>
+          </cell>
+          <cell r="F83">
+            <v>25</v>
+          </cell>
+          <cell r="G83">
+            <v>1</v>
+          </cell>
+          <cell r="H83">
+            <v>0</v>
+          </cell>
+          <cell r="I83">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v xml:space="preserve">TS_DEC_THHP_GAS </v>
+          </cell>
+          <cell r="C84">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D84">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E84">
+            <v>0</v>
+          </cell>
+          <cell r="F84">
+            <v>25</v>
+          </cell>
+          <cell r="G84">
+            <v>1</v>
+          </cell>
+          <cell r="H84">
+            <v>0</v>
+          </cell>
+          <cell r="I84">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v xml:space="preserve">TS_DEC_COGEN_GAS </v>
+          </cell>
+          <cell r="C85">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D85">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E85">
+            <v>0</v>
+          </cell>
+          <cell r="F85">
+            <v>25</v>
+          </cell>
+          <cell r="G85">
+            <v>1</v>
+          </cell>
+          <cell r="H85">
+            <v>0</v>
+          </cell>
+          <cell r="I85">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v xml:space="preserve">TS_DEC_COGEN_OIL </v>
+          </cell>
+          <cell r="C86">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D86">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E86">
+            <v>0</v>
+          </cell>
+          <cell r="F86">
+            <v>25</v>
+          </cell>
+          <cell r="G86">
+            <v>1</v>
+          </cell>
+          <cell r="H86">
+            <v>0</v>
+          </cell>
+          <cell r="I86">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v xml:space="preserve">TS_DEC_ADVCOGEN_GAS </v>
+          </cell>
+          <cell r="C87">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D87">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E87">
+            <v>0</v>
+          </cell>
+          <cell r="F87">
+            <v>25</v>
+          </cell>
+          <cell r="G87">
+            <v>1</v>
+          </cell>
+          <cell r="H87">
+            <v>0</v>
+          </cell>
+          <cell r="I87">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v xml:space="preserve">TS_DEC_ADVCOGEN_H2 </v>
+          </cell>
+          <cell r="C88">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D88">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E88">
+            <v>0</v>
+          </cell>
+          <cell r="F88">
+            <v>25</v>
+          </cell>
+          <cell r="G88">
+            <v>1</v>
+          </cell>
+          <cell r="H88">
+            <v>0</v>
+          </cell>
+          <cell r="I88">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v xml:space="preserve">TS_DEC_BOILER_GAS </v>
+          </cell>
+          <cell r="C89">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D89">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E89">
+            <v>0</v>
+          </cell>
+          <cell r="F89">
+            <v>25</v>
+          </cell>
+          <cell r="G89">
+            <v>1</v>
+          </cell>
+          <cell r="H89">
+            <v>0</v>
+          </cell>
+          <cell r="I89">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v xml:space="preserve">TS_DEC_BOILER_WOOD </v>
+          </cell>
+          <cell r="C90">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D90">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E90">
+            <v>0</v>
+          </cell>
+          <cell r="F90">
+            <v>25</v>
+          </cell>
+          <cell r="G90">
+            <v>1</v>
+          </cell>
+          <cell r="H90">
+            <v>0</v>
+          </cell>
+          <cell r="I90">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v xml:space="preserve">TS_DEC_BOILER_OIL </v>
+          </cell>
+          <cell r="C91">
+            <v>18.971813840247215</v>
+          </cell>
+          <cell r="D91">
+            <v>0.13280269688173049</v>
+          </cell>
+          <cell r="E91">
+            <v>0</v>
+          </cell>
+          <cell r="F91">
+            <v>25</v>
+          </cell>
+          <cell r="G91">
+            <v>1</v>
+          </cell>
+          <cell r="H91">
+            <v>0</v>
+          </cell>
+          <cell r="I91">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>TS_DHN_DAILY</v>
+          </cell>
+          <cell r="C92">
+            <v>3</v>
+          </cell>
+          <cell r="D92">
+            <v>8.6E-3</v>
+          </cell>
+          <cell r="E92">
+            <v>0</v>
+          </cell>
+          <cell r="F92">
+            <v>40</v>
+          </cell>
+          <cell r="G92">
+            <v>1</v>
+          </cell>
+          <cell r="H92">
+            <v>0</v>
+          </cell>
+          <cell r="I92">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>TS_DHN_SEASONAL</v>
+          </cell>
+          <cell r="C93">
+            <v>0.54</v>
+          </cell>
+          <cell r="D93">
+            <v>3.0000000000000001E-3</v>
+          </cell>
+          <cell r="E93">
+            <v>0</v>
+          </cell>
+          <cell r="F93">
+            <v>25</v>
+          </cell>
+          <cell r="G93">
+            <v>1</v>
+          </cell>
+          <cell r="H93">
+            <v>0</v>
+          </cell>
+          <cell r="I93">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>SEASONAL_NG</v>
+          </cell>
+          <cell r="C94">
+            <v>5.1158000000000002E-2</v>
+          </cell>
+          <cell r="D94">
+            <v>1.3091641490433031E-3</v>
+          </cell>
+          <cell r="E94">
+            <v>0</v>
+          </cell>
+          <cell r="F94">
+            <v>30</v>
+          </cell>
+          <cell r="G94">
+            <v>1</v>
+          </cell>
+          <cell r="H94">
+            <v>0</v>
+          </cell>
+          <cell r="I94">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>SEASONAL_H2</v>
+          </cell>
+          <cell r="C95">
+            <v>6.19</v>
+          </cell>
+          <cell r="D95">
+            <v>0.03</v>
+          </cell>
+          <cell r="E95">
+            <v>0</v>
+          </cell>
+          <cell r="F95">
+            <v>20</v>
+          </cell>
+          <cell r="G95">
+            <v>1</v>
+          </cell>
+          <cell r="H95">
+            <v>0</v>
+          </cell>
+          <cell r="I95">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>CO2_STORAGE</v>
+          </cell>
+          <cell r="C96">
+            <v>49.5</v>
+          </cell>
+          <cell r="D96">
+            <v>0.495</v>
+          </cell>
+          <cell r="E96">
+            <v>0</v>
+          </cell>
+          <cell r="F96">
+            <v>20</v>
+          </cell>
+          <cell r="G96">
+            <v>1</v>
+          </cell>
+          <cell r="H96">
+            <v>0</v>
+          </cell>
+          <cell r="I96">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>SLF_STO</v>
+          </cell>
+          <cell r="C97">
+            <v>6.3499999999999997E-3</v>
+          </cell>
+          <cell r="D97">
+            <v>3.97E-4</v>
+          </cell>
+          <cell r="E97">
+            <v>0</v>
+          </cell>
+          <cell r="F97">
+            <v>20</v>
+          </cell>
+          <cell r="G97">
+            <v>1</v>
+          </cell>
+          <cell r="H97">
+            <v>0</v>
+          </cell>
+          <cell r="I97">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13461,6 +16472,574 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3E619E-488A-45F8-BA95-C13445D78A74}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>'[2]2.1 RESOURCES'!A2</f>
+        <v>{RESOURCES}</v>
+      </c>
+      <c r="B1">
+        <f>'[2]2.1 RESOURCES'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'[2]2.1 RESOURCES'!C2</f>
+        <v xml:space="preserve">gwp_op [ktCO2-eq./GWh]  </v>
+      </c>
+      <c r="D1" t="str">
+        <f>'[2]2.1 RESOURCES'!D2</f>
+        <v>c_op [M€/GWh]</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'[2]2.1 RESOURCES'!E2</f>
+        <v xml:space="preserve">CO2_op [ktCO2-eq./GWh]  </v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'[2]2.1 RESOURCES'!A3</f>
+        <v>ELECTRICITY</v>
+      </c>
+      <c r="B2">
+        <f>'[2]2.1 RESOURCES'!B3</f>
+        <v>1000000</v>
+      </c>
+      <c r="C2">
+        <f>'[2]2.1 RESOURCES'!C3</f>
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="D2">
+        <f>'[2]2.1 RESOURCES'!D3</f>
+        <v>8.4335190715508199E-2</v>
+      </c>
+      <c r="E2">
+        <f>'[2]2.1 RESOURCES'!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>'[2]2.1 RESOURCES'!A4</f>
+        <v>GASOLINE</v>
+      </c>
+      <c r="B3">
+        <f>'[2]2.1 RESOURCES'!B4</f>
+        <v>1000000</v>
+      </c>
+      <c r="C3">
+        <f>'[2]2.1 RESOURCES'!C4</f>
+        <v>0.3448</v>
+      </c>
+      <c r="D3">
+        <f>'[2]2.1 RESOURCES'!D4</f>
+        <v>8.236604430198545E-2</v>
+      </c>
+      <c r="E3">
+        <f>'[2]2.1 RESOURCES'!E4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>'[2]2.1 RESOURCES'!A5</f>
+        <v>DIESEL</v>
+      </c>
+      <c r="B4">
+        <f>'[2]2.1 RESOURCES'!B5</f>
+        <v>1000000</v>
+      </c>
+      <c r="C4">
+        <f>'[2]2.1 RESOURCES'!C5</f>
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="D4">
+        <f>'[2]2.1 RESOURCES'!D5</f>
+        <v>7.9743788033768068E-2</v>
+      </c>
+      <c r="E4">
+        <f>'[2]2.1 RESOURCES'!E5</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>'[2]2.1 RESOURCES'!A6</f>
+        <v>BIOETHANOL</v>
+      </c>
+      <c r="B5">
+        <f>'[2]2.1 RESOURCES'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>'[2]2.1 RESOURCES'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>'[2]2.1 RESOURCES'!D6</f>
+        <v>8.236604430198545E-2</v>
+      </c>
+      <c r="E5">
+        <f>'[2]2.1 RESOURCES'!E6</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>'[2]2.1 RESOURCES'!A7</f>
+        <v>BIODIESEL</v>
+      </c>
+      <c r="B6">
+        <f>'[2]2.1 RESOURCES'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>'[2]2.1 RESOURCES'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>'[2]2.1 RESOURCES'!D7</f>
+        <v>7.9743788033768068E-2</v>
+      </c>
+      <c r="E6">
+        <f>'[2]2.1 RESOURCES'!E7</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>'[2]2.1 RESOURCES'!A8</f>
+        <v>LFO</v>
+      </c>
+      <c r="B7">
+        <f>'[2]2.1 RESOURCES'!B8</f>
+        <v>1000000</v>
+      </c>
+      <c r="C7">
+        <f>'[2]2.1 RESOURCES'!C8</f>
+        <v>0.3115</v>
+      </c>
+      <c r="D7">
+        <f>'[2]2.1 RESOURCES'!D8</f>
+        <v>5.6740267478883673E-2</v>
+      </c>
+      <c r="E7">
+        <f>'[2]2.1 RESOURCES'!E8</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>'[2]2.1 RESOURCES'!A9</f>
+        <v>NG</v>
+      </c>
+      <c r="B8">
+        <f>'[2]2.1 RESOURCES'!B9</f>
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <f>'[2]2.1 RESOURCES'!C9</f>
+        <v>0.2666</v>
+      </c>
+      <c r="D8">
+        <f>'[2]2.1 RESOURCES'!D9</f>
+        <v>4.1454117647058822E-2</v>
+      </c>
+      <c r="E8">
+        <f>'[2]2.1 RESOURCES'!E9</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>'[2]2.1 RESOURCES'!A10</f>
+        <v>SNG</v>
+      </c>
+      <c r="B9">
+        <f>'[2]2.1 RESOURCES'!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>'[2]2.1 RESOURCES'!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>'[2]2.1 RESOURCES'!D10</f>
+        <v>4.1454117647058822E-2</v>
+      </c>
+      <c r="E9">
+        <f>'[2]2.1 RESOURCES'!E10</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>'[2]2.1 RESOURCES'!A11</f>
+        <v>WOOD</v>
+      </c>
+      <c r="B10">
+        <f>'[2]2.1 RESOURCES'!B11</f>
+        <v>16484</v>
+      </c>
+      <c r="C10">
+        <f>'[2]2.1 RESOURCES'!C11</f>
+        <v>1.18E-2</v>
+      </c>
+      <c r="D10">
+        <f>'[2]2.1 RESOURCES'!D11</f>
+        <v>2.664E-2</v>
+      </c>
+      <c r="E10">
+        <f>'[2]2.1 RESOURCES'!E11</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'[2]2.1 RESOURCES'!A12</f>
+        <v>WET_BIOMASS</v>
+      </c>
+      <c r="B11">
+        <f>'[2]2.1 RESOURCES'!B12</f>
+        <v>13716.9</v>
+      </c>
+      <c r="C11">
+        <f>'[2]2.1 RESOURCES'!C12</f>
+        <v>1.18E-2</v>
+      </c>
+      <c r="D11">
+        <f>'[2]2.1 RESOURCES'!D12</f>
+        <v>2.664E-2</v>
+      </c>
+      <c r="E11">
+        <f>'[2]2.1 RESOURCES'!E12</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>'[2]2.1 RESOURCES'!A13</f>
+        <v>COAL</v>
+      </c>
+      <c r="B12">
+        <f>'[2]2.1 RESOURCES'!B13</f>
+        <v>33354.99944</v>
+      </c>
+      <c r="C12">
+        <f>'[2]2.1 RESOURCES'!C13</f>
+        <v>0.40139999999999998</v>
+      </c>
+      <c r="D12">
+        <f>'[2]2.1 RESOURCES'!D13</f>
+        <v>1.7642352941176474E-2</v>
+      </c>
+      <c r="E12">
+        <f>'[2]2.1 RESOURCES'!E13</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>'[2]2.1 RESOURCES'!A14</f>
+        <v>URANIUM</v>
+      </c>
+      <c r="B13">
+        <f>'[2]2.1 RESOURCES'!B14</f>
+        <v>1000000</v>
+      </c>
+      <c r="C13">
+        <f>'[2]2.1 RESOURCES'!C14</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D13">
+        <f>'[2]2.1 RESOURCES'!D14</f>
+        <v>3.8764557330677445E-3</v>
+      </c>
+      <c r="E13">
+        <f>'[2]2.1 RESOURCES'!E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>'[2]2.1 RESOURCES'!A15</f>
+        <v>WASTE</v>
+      </c>
+      <c r="B14">
+        <f>'[2]2.1 RESOURCES'!B15</f>
+        <v>9333</v>
+      </c>
+      <c r="C14">
+        <f>'[2]2.1 RESOURCES'!C15</f>
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="D14">
+        <f>'[2]2.1 RESOURCES'!D15</f>
+        <v>2.664E-2</v>
+      </c>
+      <c r="E14">
+        <f>'[2]2.1 RESOURCES'!E15</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>'[2]2.1 RESOURCES'!A16</f>
+        <v>H2</v>
+      </c>
+      <c r="B15">
+        <f>'[2]2.1 RESOURCES'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>'[2]2.1 RESOURCES'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>'[2]2.1 RESOURCES'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>'[2]2.1 RESOURCES'!E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>'[2]2.1 RESOURCES'!A17</f>
+        <v>SLF</v>
+      </c>
+      <c r="B16">
+        <f>'[2]2.1 RESOURCES'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>'[2]2.1 RESOURCES'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>'[2]2.1 RESOURCES'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>'[2]2.1 RESOURCES'!E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>'[2]2.1 RESOURCES'!A18</f>
+        <v>ELEC_EXPORT</v>
+      </c>
+      <c r="B17">
+        <f>'[2]2.1 RESOURCES'!B18</f>
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <f>'[2]2.1 RESOURCES'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>'[2]2.1 RESOURCES'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>'[2]2.1 RESOURCES'!E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>'[2]2.1 RESOURCES'!A19</f>
+        <v>CO2_EMISSIONS</v>
+      </c>
+      <c r="B18">
+        <f>'[2]2.1 RESOURCES'!B19</f>
+        <v>1000000</v>
+      </c>
+      <c r="C18">
+        <f>'[2]2.1 RESOURCES'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>'[2]2.1 RESOURCES'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>'[2]2.1 RESOURCES'!E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>'[2]2.1 RESOURCES'!A20</f>
+        <v>RES_WIND</v>
+      </c>
+      <c r="B19">
+        <f>'[2]2.1 RESOURCES'!B20</f>
+        <v>1000000</v>
+      </c>
+      <c r="C19">
+        <f>'[2]2.1 RESOURCES'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>'[2]2.1 RESOURCES'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>'[2]2.1 RESOURCES'!E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'[2]2.1 RESOURCES'!A21</f>
+        <v>RES_SOLAR</v>
+      </c>
+      <c r="B20">
+        <f>'[2]2.1 RESOURCES'!B21</f>
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <f>'[2]2.1 RESOURCES'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>'[2]2.1 RESOURCES'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>'[2]2.1 RESOURCES'!E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>'[2]2.1 RESOURCES'!A22</f>
+        <v>RES_HYDRO</v>
+      </c>
+      <c r="B21">
+        <f>'[2]2.1 RESOURCES'!B22</f>
+        <v>1000000</v>
+      </c>
+      <c r="C21">
+        <f>'[2]2.1 RESOURCES'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>'[2]2.1 RESOURCES'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>'[2]2.1 RESOURCES'!E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>'[2]2.1 RESOURCES'!A23</f>
+        <v>RES_GEO</v>
+      </c>
+      <c r="B22">
+        <f>'[2]2.1 RESOURCES'!B23</f>
+        <v>1000000</v>
+      </c>
+      <c r="C22">
+        <f>'[2]2.1 RESOURCES'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>'[2]2.1 RESOURCES'!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>'[2]2.1 RESOURCES'!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>'[2]2.1 RESOURCES'!A24</f>
+        <v xml:space="preserve">CO2_ATM </v>
+      </c>
+      <c r="B23">
+        <f>'[2]2.1 RESOURCES'!B24</f>
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <f>'[2]2.1 RESOURCES'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>'[2]2.1 RESOURCES'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>'[2]2.1 RESOURCES'!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>'[2]2.1 RESOURCES'!A25</f>
+        <v xml:space="preserve">CO2_INDUSTRY </v>
+      </c>
+      <c r="B24">
+        <f>'[2]2.1 RESOURCES'!B25</f>
+        <v>1000000</v>
+      </c>
+      <c r="C24">
+        <f>'[2]2.1 RESOURCES'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>'[2]2.1 RESOURCES'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>'[2]2.1 RESOURCES'!E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>'[2]2.1 RESOURCES'!A26</f>
+        <v>CO2_CAPTURED</v>
+      </c>
+      <c r="B25">
+        <f>'[2]2.1 RESOURCES'!B26</f>
+        <v>1000000</v>
+      </c>
+      <c r="C25">
+        <f>'[2]2.1 RESOURCES'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>'[2]2.1 RESOURCES'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>'[2]2.1 RESOURCES'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC102"/>
   <sheetViews>
@@ -25488,7 +29067,4298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CA292-24D1-4A85-92E7-3C825BD41413}">
+  <dimension ref="A1:K97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>'[2]3.2 TECH'!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'[2]3.2 TECH'!B1</f>
+        <v>param:</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'[2]3.2 TECH'!C1</f>
+        <v>c_inv</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'[2]3.2 TECH'!D1</f>
+        <v>c_maint</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'[2]3.2 TECH'!E1</f>
+        <v>gwp_constr</v>
+      </c>
+      <c r="F1" t="str">
+        <f>'[2]3.2 TECH'!F1</f>
+        <v>lifetime</v>
+      </c>
+      <c r="G1" t="str">
+        <f>'[2]3.2 TECH'!G1</f>
+        <v>c_p</v>
+      </c>
+      <c r="H1" t="str">
+        <f>'[2]3.2 TECH'!H1</f>
+        <v>fmin_perc</v>
+      </c>
+      <c r="I1" t="str">
+        <f>'[2]3.2 TECH'!I1</f>
+        <v>fmax_perc</v>
+      </c>
+      <c r="J1">
+        <f>'[2]3.2 TECH'!$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f>'[2]3.2 TECH'!$A$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'[2]3.2 TECH'!A2</f>
+        <v>ELECTRICITY</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'[2]3.2 TECH'!B2</f>
+        <v>NUCLEAR</v>
+      </c>
+      <c r="C2">
+        <f>'[2]3.2 TECH'!C2</f>
+        <v>4845.7346193463809</v>
+      </c>
+      <c r="D2">
+        <f>'[2]3.2 TECH'!D2</f>
+        <v>102.9309860473827</v>
+      </c>
+      <c r="E2">
+        <f>'[2]3.2 TECH'!E2</f>
+        <v>707.88</v>
+      </c>
+      <c r="F2">
+        <f>'[2]3.2 TECH'!F2</f>
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <f>'[2]3.2 TECH'!G2</f>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H2">
+        <f>'[2]3.2 TECH'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>'[2]3.2 TECH'!I2</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'[2]3.2 TECH'!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'[2]3.2 TECH'!B3</f>
+        <v>CCGT</v>
+      </c>
+      <c r="C3">
+        <f>'[2]3.2 TECH'!C3</f>
+        <v>771.99175952804558</v>
+      </c>
+      <c r="D3">
+        <f>'[2]3.2 TECH'!D3</f>
+        <v>19.730311826950089</v>
+      </c>
+      <c r="E3">
+        <f>'[2]3.2 TECH'!E3</f>
+        <v>183.79</v>
+      </c>
+      <c r="F3">
+        <f>'[2]3.2 TECH'!F3</f>
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <f>'[2]3.2 TECH'!G3</f>
+        <v>0.85</v>
+      </c>
+      <c r="H3">
+        <f>'[2]3.2 TECH'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>'[2]3.2 TECH'!I3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'[2]3.2 TECH'!A4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'[2]3.2 TECH'!B4</f>
+        <v>COAL_US</v>
+      </c>
+      <c r="C4">
+        <f>'[2]3.2 TECH'!C4</f>
+        <v>2516.7056840528139</v>
+      </c>
+      <c r="D4">
+        <f>'[2]3.2 TECH'!D4</f>
+        <v>29.703155726191589</v>
+      </c>
+      <c r="E4">
+        <f>'[2]3.2 TECH'!E4</f>
+        <v>331.6</v>
+      </c>
+      <c r="F4">
+        <f>'[2]3.2 TECH'!F4</f>
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <f>'[2]3.2 TECH'!G4</f>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H4">
+        <f>'[2]3.2 TECH'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>'[2]3.2 TECH'!I4</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'[2]3.2 TECH'!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'[2]3.2 TECH'!B5</f>
+        <v>COAL_IGCC</v>
+      </c>
+      <c r="C5">
+        <f>'[2]3.2 TECH'!C5</f>
+        <v>3245.8095327277833</v>
+      </c>
+      <c r="D5">
+        <f>'[2]3.2 TECH'!D5</f>
+        <v>48.946530574023782</v>
+      </c>
+      <c r="E5">
+        <f>'[2]3.2 TECH'!E5</f>
+        <v>331.6</v>
+      </c>
+      <c r="F5">
+        <f>'[2]3.2 TECH'!F5</f>
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f>'[2]3.2 TECH'!G5</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H5">
+        <f>'[2]3.2 TECH'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>'[2]3.2 TECH'!I5</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'[2]3.2 TECH'!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'[2]3.2 TECH'!B6</f>
+        <v>PV</v>
+      </c>
+      <c r="C6">
+        <f>'[2]3.2 TECH'!C6</f>
+        <v>870</v>
+      </c>
+      <c r="D6">
+        <f>'[2]3.2 TECH'!D6</f>
+        <v>10.815</v>
+      </c>
+      <c r="E6">
+        <f>'[2]3.2 TECH'!E6</f>
+        <v>2081.4299999999998</v>
+      </c>
+      <c r="F6">
+        <f>'[2]3.2 TECH'!F6</f>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f>'[2]3.2 TECH'!G6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>'[2]3.2 TECH'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>'[2]3.2 TECH'!I6</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'[2]3.2 TECH'!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'[2]3.2 TECH'!B7</f>
+        <v>WIND_ONSHORE</v>
+      </c>
+      <c r="C7">
+        <f>'[2]3.2 TECH'!C7</f>
+        <v>1040</v>
+      </c>
+      <c r="D7">
+        <f>'[2]3.2 TECH'!D7</f>
+        <v>2.89</v>
+      </c>
+      <c r="E7">
+        <f>'[2]3.2 TECH'!E7</f>
+        <v>622.85</v>
+      </c>
+      <c r="F7">
+        <f>'[2]3.2 TECH'!F7</f>
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f>'[2]3.2 TECH'!G7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>'[2]3.2 TECH'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>'[2]3.2 TECH'!I7</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.177</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'[2]3.2 TECH'!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'[2]3.2 TECH'!B8</f>
+        <v>WIND_OFFSHORE</v>
+      </c>
+      <c r="C8">
+        <f>'[2]3.2 TECH'!C8</f>
+        <v>1930</v>
+      </c>
+      <c r="D8">
+        <f>'[2]3.2 TECH'!D8</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E8">
+        <f>'[2]3.2 TECH'!E8</f>
+        <v>622.85</v>
+      </c>
+      <c r="F8">
+        <f>'[2]3.2 TECH'!F8</f>
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <f>'[2]3.2 TECH'!G8</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>'[2]3.2 TECH'!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>'[2]3.2 TECH'!I8</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'[2]3.2 TECH'!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'[2]3.2 TECH'!B9</f>
+        <v>HYDRO_RIVER</v>
+      </c>
+      <c r="C9">
+        <f>'[2]3.2 TECH'!C9</f>
+        <v>5044.9199363236257</v>
+      </c>
+      <c r="D9">
+        <f>'[2]3.2 TECH'!D9</f>
+        <v>50.444798202078843</v>
+      </c>
+      <c r="E9">
+        <f>'[2]3.2 TECH'!E9</f>
+        <v>1262.82</v>
+      </c>
+      <c r="F9">
+        <f>'[2]3.2 TECH'!F9</f>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f>'[2]3.2 TECH'!G9</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>'[2]3.2 TECH'!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>'[2]3.2 TECH'!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.11</v>
+      </c>
+      <c r="K9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'[2]3.2 TECH'!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'[2]3.2 TECH'!B10</f>
+        <v>GEOTHERMAL</v>
+      </c>
+      <c r="C10">
+        <f>'[2]3.2 TECH'!C10</f>
+        <v>7488</v>
+      </c>
+      <c r="D10">
+        <f>'[2]3.2 TECH'!D10</f>
+        <v>142.27199999999999</v>
+      </c>
+      <c r="E10">
+        <f>'[2]3.2 TECH'!E10</f>
+        <v>24929.09</v>
+      </c>
+      <c r="F10">
+        <f>'[2]3.2 TECH'!F10</f>
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <f>'[2]3.2 TECH'!G10</f>
+        <v>0.86</v>
+      </c>
+      <c r="H10">
+        <f>'[2]3.2 TECH'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>'[2]3.2 TECH'!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'[2]3.2 TECH'!A11</f>
+        <v>HEAT_HIGH_T
+(INDUSTRY)</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'[2]3.2 TECH'!B11</f>
+        <v>IND_COGEN_GAS</v>
+      </c>
+      <c r="C11">
+        <f>'[2]3.2 TECH'!C11</f>
+        <v>1408.0344601554452</v>
+      </c>
+      <c r="D11">
+        <f>'[2]3.2 TECH'!D11</f>
+        <v>92.611667759153477</v>
+      </c>
+      <c r="E11">
+        <f>'[2]3.2 TECH'!E11</f>
+        <v>1024.32</v>
+      </c>
+      <c r="F11">
+        <f>'[2]3.2 TECH'!F11</f>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>'[2]3.2 TECH'!G11</f>
+        <v>0.85</v>
+      </c>
+      <c r="H11">
+        <f>'[2]3.2 TECH'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>'[2]3.2 TECH'!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'[2]3.2 TECH'!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'[2]3.2 TECH'!B12</f>
+        <v>IND_COGEN_WOOD</v>
+      </c>
+      <c r="C12">
+        <f>'[2]3.2 TECH'!C12</f>
+        <v>1080.7940818428692</v>
+      </c>
+      <c r="D12">
+        <f>'[2]3.2 TECH'!D12</f>
+        <v>40.490682648188034</v>
+      </c>
+      <c r="E12">
+        <f>'[2]3.2 TECH'!E12</f>
+        <v>165.33</v>
+      </c>
+      <c r="F12">
+        <f>'[2]3.2 TECH'!F12</f>
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <f>'[2]3.2 TECH'!G12</f>
+        <v>0.85</v>
+      </c>
+      <c r="H12">
+        <f>'[2]3.2 TECH'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>'[2]3.2 TECH'!I12</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>'[2]3.2 TECH'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'[2]3.2 TECH'!B13</f>
+        <v>IND_COGEN_WASTE</v>
+      </c>
+      <c r="C13">
+        <f>'[2]3.2 TECH'!C13</f>
+        <v>2927.8677778818242</v>
+      </c>
+      <c r="D13">
+        <f>'[2]3.2 TECH'!D13</f>
+        <v>111.32128476449104</v>
+      </c>
+      <c r="E13">
+        <f>'[2]3.2 TECH'!E13</f>
+        <v>647.82000000000005</v>
+      </c>
+      <c r="F13">
+        <f>'[2]3.2 TECH'!F13</f>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <f>'[2]3.2 TECH'!G13</f>
+        <v>0.85</v>
+      </c>
+      <c r="H13">
+        <f>'[2]3.2 TECH'!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>'[2]3.2 TECH'!I13</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>'[2]3.2 TECH'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'[2]3.2 TECH'!B14</f>
+        <v>IND_BOILER_GAS</v>
+      </c>
+      <c r="C14">
+        <f>'[2]3.2 TECH'!C14</f>
+        <v>58.891281955239251</v>
+      </c>
+      <c r="D14">
+        <f>'[2]3.2 TECH'!D14</f>
+        <v>1.1798857570933607</v>
+      </c>
+      <c r="E14">
+        <f>'[2]3.2 TECH'!E14</f>
+        <v>12.32</v>
+      </c>
+      <c r="F14">
+        <f>'[2]3.2 TECH'!F14</f>
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <f>'[2]3.2 TECH'!G14</f>
+        <v>0.95</v>
+      </c>
+      <c r="H14">
+        <f>'[2]3.2 TECH'!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>'[2]3.2 TECH'!I14</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>'[2]3.2 TECH'!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'[2]3.2 TECH'!B15</f>
+        <v>IND_BOILER_WOOD</v>
+      </c>
+      <c r="C15">
+        <f>'[2]3.2 TECH'!C15</f>
+        <v>115.17932390673283</v>
+      </c>
+      <c r="D15">
+        <f>'[2]3.2 TECH'!D15</f>
+        <v>2.3035864781346564</v>
+      </c>
+      <c r="E15">
+        <f>'[2]3.2 TECH'!E15</f>
+        <v>28.87</v>
+      </c>
+      <c r="F15">
+        <f>'[2]3.2 TECH'!F15</f>
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <f>'[2]3.2 TECH'!G15</f>
+        <v>0.9</v>
+      </c>
+      <c r="H15">
+        <f>'[2]3.2 TECH'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>'[2]3.2 TECH'!I15</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>'[2]3.2 TECH'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'[2]3.2 TECH'!B16</f>
+        <v>IND_BOILER_OIL</v>
+      </c>
+      <c r="C16">
+        <f>'[2]3.2 TECH'!C16</f>
+        <v>54.855323532165926</v>
+      </c>
+      <c r="D16">
+        <f>'[2]3.2 TECH'!D16</f>
+        <v>1.1798857570933607</v>
+      </c>
+      <c r="E16">
+        <f>'[2]3.2 TECH'!E16</f>
+        <v>12.32</v>
+      </c>
+      <c r="F16">
+        <f>'[2]3.2 TECH'!F16</f>
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <f>'[2]3.2 TECH'!G16</f>
+        <v>0.95</v>
+      </c>
+      <c r="H16">
+        <f>'[2]3.2 TECH'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>'[2]3.2 TECH'!I16</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>'[2]3.2 TECH'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'[2]3.2 TECH'!B17</f>
+        <v>IND_BOILER_COAL</v>
+      </c>
+      <c r="C17">
+        <f>'[2]3.2 TECH'!C17</f>
+        <v>115.17932390673283</v>
+      </c>
+      <c r="D17">
+        <f>'[2]3.2 TECH'!D17</f>
+        <v>2.3035864781346564</v>
+      </c>
+      <c r="E17">
+        <f>'[2]3.2 TECH'!E17</f>
+        <v>48.18</v>
+      </c>
+      <c r="F17">
+        <f>'[2]3.2 TECH'!F17</f>
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <f>'[2]3.2 TECH'!G17</f>
+        <v>0.9</v>
+      </c>
+      <c r="H17">
+        <f>'[2]3.2 TECH'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>'[2]3.2 TECH'!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>'[2]3.2 TECH'!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'[2]3.2 TECH'!B18</f>
+        <v>IND_BOILER_WASTE</v>
+      </c>
+      <c r="C18">
+        <f>'[2]3.2 TECH'!C18</f>
+        <v>115.17932390673283</v>
+      </c>
+      <c r="D18">
+        <f>'[2]3.2 TECH'!D18</f>
+        <v>2.3035864781346564</v>
+      </c>
+      <c r="E18">
+        <f>'[2]3.2 TECH'!E18</f>
+        <v>28.87</v>
+      </c>
+      <c r="F18">
+        <f>'[2]3.2 TECH'!F18</f>
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f>'[2]3.2 TECH'!G18</f>
+        <v>0.9</v>
+      </c>
+      <c r="H18">
+        <f>'[2]3.2 TECH'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>'[2]3.2 TECH'!I18</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>'[2]3.2 TECH'!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'[2]3.2 TECH'!B19</f>
+        <v>IND_DIRECT_ELEC</v>
+      </c>
+      <c r="C19">
+        <f>'[2]3.2 TECH'!C19</f>
+        <v>332.34385242063865</v>
+      </c>
+      <c r="D19">
+        <f>'[2]3.2 TECH'!D19</f>
+        <v>1.5076318007304055</v>
+      </c>
+      <c r="E19">
+        <f>'[2]3.2 TECH'!E19</f>
+        <v>1.47</v>
+      </c>
+      <c r="F19">
+        <f>'[2]3.2 TECH'!F19</f>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f>'[2]3.2 TECH'!G19</f>
+        <v>0.95</v>
+      </c>
+      <c r="H19">
+        <f>'[2]3.2 TECH'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>'[2]3.2 TECH'!I19</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'[2]3.2 TECH'!A20</f>
+        <v>HEAT_LOW_T
+DHN</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'[2]3.2 TECH'!B20</f>
+        <v>DHN_HP_ELEC</v>
+      </c>
+      <c r="C20">
+        <f>'[2]3.2 TECH'!C20</f>
+        <v>344.76074538814493</v>
+      </c>
+      <c r="D20">
+        <f>'[2]3.2 TECH'!D20</f>
+        <v>11.995505197115834</v>
+      </c>
+      <c r="E20">
+        <f>'[2]3.2 TECH'!E20</f>
+        <v>174.79</v>
+      </c>
+      <c r="F20">
+        <f>'[2]3.2 TECH'!F20</f>
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f>'[2]3.2 TECH'!G20</f>
+        <v>0.95</v>
+      </c>
+      <c r="H20">
+        <f>'[2]3.2 TECH'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>'[2]3.2 TECH'!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>'[2]3.2 TECH'!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'[2]3.2 TECH'!B21</f>
+        <v>DHN_COGEN_GAS</v>
+      </c>
+      <c r="C21">
+        <f>'[2]3.2 TECH'!C21</f>
+        <v>1254.4901207978276</v>
+      </c>
+      <c r="D21">
+        <f>'[2]3.2 TECH'!D21</f>
+        <v>37.531604082779282</v>
+      </c>
+      <c r="E21">
+        <f>'[2]3.2 TECH'!E21</f>
+        <v>490.88</v>
+      </c>
+      <c r="F21">
+        <f>'[2]3.2 TECH'!F21</f>
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <f>'[2]3.2 TECH'!G21</f>
+        <v>0.85</v>
+      </c>
+      <c r="H21">
+        <f>'[2]3.2 TECH'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>'[2]3.2 TECH'!I21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>'[2]3.2 TECH'!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'[2]3.2 TECH'!B22</f>
+        <v>DHN_COGEN_WOOD</v>
+      </c>
+      <c r="C22">
+        <f>'[2]3.2 TECH'!C22</f>
+        <v>1080.7940818428692</v>
+      </c>
+      <c r="D22">
+        <f>'[2]3.2 TECH'!D22</f>
+        <v>40.490682648188034</v>
+      </c>
+      <c r="E22">
+        <f>'[2]3.2 TECH'!E22</f>
+        <v>165.33</v>
+      </c>
+      <c r="F22">
+        <f>'[2]3.2 TECH'!F22</f>
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <f>'[2]3.2 TECH'!G22</f>
+        <v>0.85</v>
+      </c>
+      <c r="H22">
+        <f>'[2]3.2 TECH'!H22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>'[2]3.2 TECH'!I22</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>'[2]3.2 TECH'!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'[2]3.2 TECH'!B23</f>
+        <v>DHN_COGEN_WASTE</v>
+      </c>
+      <c r="C23">
+        <f>'[2]3.2 TECH'!C23</f>
+        <v>2927.8677778818242</v>
+      </c>
+      <c r="D23">
+        <f>'[2]3.2 TECH'!D23</f>
+        <v>111.32128476449104</v>
+      </c>
+      <c r="E23">
+        <f>'[2]3.2 TECH'!E23</f>
+        <v>647.82000000000005</v>
+      </c>
+      <c r="F23">
+        <f>'[2]3.2 TECH'!F23</f>
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <f>'[2]3.2 TECH'!G23</f>
+        <v>0.85</v>
+      </c>
+      <c r="H23">
+        <f>'[2]3.2 TECH'!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>'[2]3.2 TECH'!I23</f>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>'[2]3.2 TECH'!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'[2]3.2 TECH'!B24</f>
+        <v>DHN_COGEN_WET_BIOMASS</v>
+      </c>
+      <c r="C24">
+        <f>'[2]3.2 TECH'!C24</f>
+        <v>2287</v>
+      </c>
+      <c r="D24">
+        <f>'[2]3.2 TECH'!D24</f>
+        <v>228.7</v>
+      </c>
+      <c r="E24">
+        <f>'[2]3.2 TECH'!E24</f>
+        <v>1024</v>
+      </c>
+      <c r="F24">
+        <f>'[2]3.2 TECH'!F24</f>
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <f>'[2]3.2 TECH'!G24</f>
+        <v>0.75</v>
+      </c>
+      <c r="H24">
+        <f>'[2]3.2 TECH'!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>'[2]3.2 TECH'!I24</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>'[2]3.2 TECH'!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'[2]3.2 TECH'!B25</f>
+        <v>DHN_BOILER_GAS</v>
+      </c>
+      <c r="C25">
+        <f>'[2]3.2 TECH'!C25</f>
+        <v>58.891281955239251</v>
+      </c>
+      <c r="D25">
+        <f>'[2]3.2 TECH'!D25</f>
+        <v>1.1798857570933607</v>
+      </c>
+      <c r="E25">
+        <f>'[2]3.2 TECH'!E25</f>
+        <v>12.32</v>
+      </c>
+      <c r="F25">
+        <f>'[2]3.2 TECH'!F25</f>
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <f>'[2]3.2 TECH'!G25</f>
+        <v>0.95</v>
+      </c>
+      <c r="H25">
+        <f>'[2]3.2 TECH'!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>'[2]3.2 TECH'!I25</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>'[2]3.2 TECH'!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'[2]3.2 TECH'!B26</f>
+        <v>DHN_BOILER_WOOD</v>
+      </c>
+      <c r="C26">
+        <f>'[2]3.2 TECH'!C26</f>
+        <v>115.17932390673283</v>
+      </c>
+      <c r="D26">
+        <f>'[2]3.2 TECH'!D26</f>
+        <v>2.3035864781346564</v>
+      </c>
+      <c r="E26">
+        <f>'[2]3.2 TECH'!E26</f>
+        <v>28.87</v>
+      </c>
+      <c r="F26">
+        <f>'[2]3.2 TECH'!F26</f>
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <f>'[2]3.2 TECH'!G26</f>
+        <v>0.9</v>
+      </c>
+      <c r="H26">
+        <f>'[2]3.2 TECH'!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>'[2]3.2 TECH'!I26</f>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>'[2]3.2 TECH'!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'[2]3.2 TECH'!B27</f>
+        <v>DHN_BOILER_OIL</v>
+      </c>
+      <c r="C27">
+        <f>'[2]3.2 TECH'!C27</f>
+        <v>54.855323532165926</v>
+      </c>
+      <c r="D27">
+        <f>'[2]3.2 TECH'!D27</f>
+        <v>1.1798857570933607</v>
+      </c>
+      <c r="E27">
+        <f>'[2]3.2 TECH'!E27</f>
+        <v>12.32</v>
+      </c>
+      <c r="F27">
+        <f>'[2]3.2 TECH'!F27</f>
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <f>'[2]3.2 TECH'!G27</f>
+        <v>0.95</v>
+      </c>
+      <c r="H27">
+        <f>'[2]3.2 TECH'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>'[2]3.2 TECH'!I27</f>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>'[2]3.2 TECH'!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'[2]3.2 TECH'!B28</f>
+        <v>DHN_DEEP_GEO</v>
+      </c>
+      <c r="C28">
+        <f>'[2]3.2 TECH'!C28</f>
+        <v>1500</v>
+      </c>
+      <c r="D28">
+        <f>'[2]3.2 TECH'!D28</f>
+        <v>57.04</v>
+      </c>
+      <c r="E28">
+        <f>'[2]3.2 TECH'!E28</f>
+        <v>808.76</v>
+      </c>
+      <c r="F28">
+        <f>'[2]3.2 TECH'!F28</f>
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <f>'[2]3.2 TECH'!G28</f>
+        <v>0.85</v>
+      </c>
+      <c r="H28">
+        <f>'[2]3.2 TECH'!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>'[2]3.2 TECH'!I28</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>'[2]3.2 TECH'!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'[2]3.2 TECH'!B29</f>
+        <v>DHN_SOLAR</v>
+      </c>
+      <c r="C29">
+        <f>'[2]3.2 TECH'!C29</f>
+        <v>362</v>
+      </c>
+      <c r="D29">
+        <f>'[2]3.2 TECH'!D29</f>
+        <v>0.433</v>
+      </c>
+      <c r="E29">
+        <f>'[2]3.2 TECH'!E29</f>
+        <v>221.22</v>
+      </c>
+      <c r="F29">
+        <f>'[2]3.2 TECH'!F29</f>
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <f>'[2]3.2 TECH'!G29</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>'[2]3.2 TECH'!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>'[2]3.2 TECH'!I29</f>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>'[2]3.2 TECH'!A30</f>
+        <v>HEAT_LOW_T
+DECEN</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'[2]3.2 TECH'!B30</f>
+        <v>DEC_HP_ELEC</v>
+      </c>
+      <c r="C30">
+        <f>'[2]3.2 TECH'!C30</f>
+        <v>492.04045322595749</v>
+      </c>
+      <c r="D30">
+        <f>'[2]3.2 TECH'!D30</f>
+        <v>21.050660174173611</v>
+      </c>
+      <c r="E30">
+        <f>'[2]3.2 TECH'!E30</f>
+        <v>164.89</v>
+      </c>
+      <c r="F30">
+        <f>'[2]3.2 TECH'!F30</f>
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <f>'[2]3.2 TECH'!G30</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>'[2]3.2 TECH'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>'[2]3.2 TECH'!I30</f>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>'[2]3.2 TECH'!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'[2]3.2 TECH'!B31</f>
+        <v>DEC_THHP_GAS</v>
+      </c>
+      <c r="C31">
+        <f>'[2]3.2 TECH'!C31</f>
+        <v>315.68498923120143</v>
+      </c>
+      <c r="D31">
+        <f>'[2]3.2 TECH'!D31</f>
+        <v>9.4671785747729178</v>
+      </c>
+      <c r="E31">
+        <f>'[2]3.2 TECH'!E31</f>
+        <v>381.93</v>
+      </c>
+      <c r="F31">
+        <f>'[2]3.2 TECH'!F31</f>
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <f>'[2]3.2 TECH'!G31</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>'[2]3.2 TECH'!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>'[2]3.2 TECH'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>'[2]3.2 TECH'!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'[2]3.2 TECH'!B32</f>
+        <v>DEC_COGEN_GAS</v>
+      </c>
+      <c r="C32">
+        <f>'[2]3.2 TECH'!C32</f>
+        <v>1408.0344601554452</v>
+      </c>
+      <c r="D32">
+        <f>'[2]3.2 TECH'!D32</f>
+        <v>92.611667759153477</v>
+      </c>
+      <c r="E32">
+        <f>'[2]3.2 TECH'!E32</f>
+        <v>1024.32</v>
+      </c>
+      <c r="F32">
+        <f>'[2]3.2 TECH'!F32</f>
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <f>'[2]3.2 TECH'!G32</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>'[2]3.2 TECH'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>'[2]3.2 TECH'!I32</f>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>'[2]3.2 TECH'!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'[2]3.2 TECH'!B33</f>
+        <v>DEC_COGEN_OIL</v>
+      </c>
+      <c r="C33">
+        <f>'[2]3.2 TECH'!C33</f>
+        <v>1305.5623185691543</v>
+      </c>
+      <c r="D33">
+        <f>'[2]3.2 TECH'!D33</f>
+        <v>81.964603427287201</v>
+      </c>
+      <c r="E33">
+        <f>'[2]3.2 TECH'!E33</f>
+        <v>1024.32</v>
+      </c>
+      <c r="F33">
+        <f>'[2]3.2 TECH'!F33</f>
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <f>'[2]3.2 TECH'!G33</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f>'[2]3.2 TECH'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>'[2]3.2 TECH'!I33</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>'[2]3.2 TECH'!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'[2]3.2 TECH'!B34</f>
+        <v>DEC_ADVCOGEN_GAS</v>
+      </c>
+      <c r="C34">
+        <f>'[2]3.2 TECH'!C34</f>
+        <v>7242.2792396291779</v>
+      </c>
+      <c r="D34">
+        <f>'[2]3.2 TECH'!D34</f>
+        <v>144.84502294222304</v>
+      </c>
+      <c r="E34">
+        <f>'[2]3.2 TECH'!E34</f>
+        <v>2193.4499999999998</v>
+      </c>
+      <c r="F34">
+        <f>'[2]3.2 TECH'!F34</f>
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <f>'[2]3.2 TECH'!G34</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>'[2]3.2 TECH'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>'[2]3.2 TECH'!I34</f>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>'[2]3.2 TECH'!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'[2]3.2 TECH'!B35</f>
+        <v>DEC_ADVCOGEN_H2</v>
+      </c>
+      <c r="C35">
+        <f>'[2]3.2 TECH'!C35</f>
+        <v>7242.2792396291779</v>
+      </c>
+      <c r="D35">
+        <f>'[2]3.2 TECH'!D35</f>
+        <v>144.84502294222304</v>
+      </c>
+      <c r="E35">
+        <f>'[2]3.2 TECH'!E35</f>
+        <v>2193.4499999999998</v>
+      </c>
+      <c r="F35">
+        <f>'[2]3.2 TECH'!F35</f>
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <f>'[2]3.2 TECH'!G35</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>'[2]3.2 TECH'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>'[2]3.2 TECH'!I35</f>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>'[2]3.2 TECH'!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'[2]3.2 TECH'!B36</f>
+        <v>DEC_BOILER_GAS</v>
+      </c>
+      <c r="C36">
+        <f>'[2]3.2 TECH'!C36</f>
+        <v>158.53544339357617</v>
+      </c>
+      <c r="D36">
+        <f>'[2]3.2 TECH'!D36</f>
+        <v>4.7569997190748197</v>
+      </c>
+      <c r="E36">
+        <f>'[2]3.2 TECH'!E36</f>
+        <v>21.09</v>
+      </c>
+      <c r="F36">
+        <f>'[2]3.2 TECH'!F36</f>
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <f>'[2]3.2 TECH'!G36</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>'[2]3.2 TECH'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>'[2]3.2 TECH'!I36</f>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>'[2]3.2 TECH'!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'[2]3.2 TECH'!B37</f>
+        <v>DEC_BOILER_WOOD</v>
+      </c>
+      <c r="C37">
+        <f>'[2]3.2 TECH'!C37</f>
+        <v>462.44030339919465</v>
+      </c>
+      <c r="D37">
+        <f>'[2]3.2 TECH'!D37</f>
+        <v>16.181290382994664</v>
+      </c>
+      <c r="E37">
+        <f>'[2]3.2 TECH'!E37</f>
+        <v>21.09</v>
+      </c>
+      <c r="F37">
+        <f>'[2]3.2 TECH'!F37</f>
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <f>'[2]3.2 TECH'!G37</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>'[2]3.2 TECH'!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>'[2]3.2 TECH'!I37</f>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>'[2]3.2 TECH'!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'[2]3.2 TECH'!B38</f>
+        <v>DEC_BOILER_OIL</v>
+      </c>
+      <c r="C38">
+        <f>'[2]3.2 TECH'!C38</f>
+        <v>142.38224552860754</v>
+      </c>
+      <c r="D38">
+        <f>'[2]3.2 TECH'!D38</f>
+        <v>8.5401254799138488</v>
+      </c>
+      <c r="E38">
+        <f>'[2]3.2 TECH'!E38</f>
+        <v>21.09</v>
+      </c>
+      <c r="F38">
+        <f>'[2]3.2 TECH'!F38</f>
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <f>'[2]3.2 TECH'!G38</f>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f>'[2]3.2 TECH'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>'[2]3.2 TECH'!I38</f>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>'[2]3.2 TECH'!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'[2]3.2 TECH'!B39</f>
+        <v>DEC_SOLAR</v>
+      </c>
+      <c r="C39">
+        <f>'[2]3.2 TECH'!C39</f>
+        <v>719.07481973967595</v>
+      </c>
+      <c r="D39">
+        <f>'[2]3.2 TECH'!D39</f>
+        <v>8.0906451914973321</v>
+      </c>
+      <c r="E39">
+        <f>'[2]3.2 TECH'!E39</f>
+        <v>221.22</v>
+      </c>
+      <c r="F39">
+        <f>'[2]3.2 TECH'!F39</f>
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <f>'[2]3.2 TECH'!G39</f>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f>'[2]3.2 TECH'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>'[2]3.2 TECH'!I39</f>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>'[2]3.2 TECH'!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'[2]3.2 TECH'!B40</f>
+        <v>DEC_DIRECT_ELEC</v>
+      </c>
+      <c r="C40">
+        <f>'[2]3.2 TECH'!C40</f>
+        <v>39.975653151044099</v>
+      </c>
+      <c r="D40">
+        <f>'[2]3.2 TECH'!D40</f>
+        <v>0.17791928083153852</v>
+      </c>
+      <c r="E40">
+        <f>'[2]3.2 TECH'!E40</f>
+        <v>1.47</v>
+      </c>
+      <c r="F40">
+        <f>'[2]3.2 TECH'!F40</f>
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <f>'[2]3.2 TECH'!G40</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>'[2]3.2 TECH'!H40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>'[2]3.2 TECH'!I40</f>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>'[2]3.2 TECH'!A41</f>
+        <v>PUBLIC
+MOBILITY</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'[2]3.2 TECH'!B41</f>
+        <v>TRAMWAY_TROLLEY</v>
+      </c>
+      <c r="C41">
+        <f>'[2]3.2 TECH'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>'[2]3.2 TECH'!D41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>'[2]3.2 TECH'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>'[2]3.2 TECH'!F41</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>'[2]3.2 TECH'!G41</f>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f>'[2]3.2 TECH'!H41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>'[2]3.2 TECH'!I41</f>
+        <v>0.3</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>'[2]3.2 TECH'!A42</f>
+        <v>0</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'[2]3.2 TECH'!B42</f>
+        <v>BUS_COACH_DIESEL</v>
+      </c>
+      <c r="C42">
+        <f>'[2]3.2 TECH'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>'[2]3.2 TECH'!D42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>'[2]3.2 TECH'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>'[2]3.2 TECH'!F42</f>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>'[2]3.2 TECH'!G42</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>'[2]3.2 TECH'!H42</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>'[2]3.2 TECH'!I42</f>
+        <v>0.3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>'[2]3.2 TECH'!A43</f>
+        <v>0</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'[2]3.2 TECH'!B43</f>
+        <v>BUS_COACH_HYDIESEL</v>
+      </c>
+      <c r="C43">
+        <f>'[2]3.2 TECH'!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>'[2]3.2 TECH'!D43</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>'[2]3.2 TECH'!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>'[2]3.2 TECH'!F43</f>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>'[2]3.2 TECH'!G43</f>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>'[2]3.2 TECH'!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>'[2]3.2 TECH'!I43</f>
+        <v>0.3</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>'[2]3.2 TECH'!A44</f>
+        <v>0</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'[2]3.2 TECH'!B44</f>
+        <v>BUS_COACH_CNG_STOICH</v>
+      </c>
+      <c r="C44">
+        <f>'[2]3.2 TECH'!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>'[2]3.2 TECH'!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>'[2]3.2 TECH'!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>'[2]3.2 TECH'!F44</f>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>'[2]3.2 TECH'!G44</f>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f>'[2]3.2 TECH'!H44</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>'[2]3.2 TECH'!I44</f>
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>'[2]3.2 TECH'!A45</f>
+        <v>0</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'[2]3.2 TECH'!B45</f>
+        <v>BUS_COACH_FC_HYBRIDH2</v>
+      </c>
+      <c r="C45">
+        <f>'[2]3.2 TECH'!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>'[2]3.2 TECH'!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>'[2]3.2 TECH'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>'[2]3.2 TECH'!F45</f>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>'[2]3.2 TECH'!G45</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f>'[2]3.2 TECH'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>'[2]3.2 TECH'!I45</f>
+        <v>0.2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>'[2]3.2 TECH'!A46</f>
+        <v>0</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'[2]3.2 TECH'!B46</f>
+        <v>TRAIN_PUB</v>
+      </c>
+      <c r="C46">
+        <f>'[2]3.2 TECH'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>'[2]3.2 TECH'!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>'[2]3.2 TECH'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>'[2]3.2 TECH'!F46</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>'[2]3.2 TECH'!G46</f>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f>'[2]3.2 TECH'!H46</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>'[2]3.2 TECH'!I46</f>
+        <v>0.6</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>'[2]3.2 TECH'!A47</f>
+        <v>PRIVATE
+MOBILITY</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'[2]3.2 TECH'!B47</f>
+        <v>CAR_GASOLINE</v>
+      </c>
+      <c r="C47">
+        <f>'[2]3.2 TECH'!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>'[2]3.2 TECH'!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>'[2]3.2 TECH'!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>'[2]3.2 TECH'!F47</f>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f>'[2]3.2 TECH'!G47</f>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f>'[2]3.2 TECH'!H47</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>'[2]3.2 TECH'!I47</f>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>'[2]3.2 TECH'!A48</f>
+        <v>0</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'[2]3.2 TECH'!B48</f>
+        <v>CAR_DIESEL</v>
+      </c>
+      <c r="C48">
+        <f>'[2]3.2 TECH'!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>'[2]3.2 TECH'!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>'[2]3.2 TECH'!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>'[2]3.2 TECH'!F48</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>'[2]3.2 TECH'!G48</f>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f>'[2]3.2 TECH'!H48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>'[2]3.2 TECH'!I48</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>'[2]3.2 TECH'!A49</f>
+        <v>0</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'[2]3.2 TECH'!B49</f>
+        <v>CAR_NG</v>
+      </c>
+      <c r="C49">
+        <f>'[2]3.2 TECH'!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>'[2]3.2 TECH'!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>'[2]3.2 TECH'!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>'[2]3.2 TECH'!F49</f>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f>'[2]3.2 TECH'!G49</f>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f>'[2]3.2 TECH'!H49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>'[2]3.2 TECH'!I49</f>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>'[2]3.2 TECH'!A50</f>
+        <v>0</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'[2]3.2 TECH'!B50</f>
+        <v>CAR_HEV</v>
+      </c>
+      <c r="C50">
+        <f>'[2]3.2 TECH'!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>'[2]3.2 TECH'!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>'[2]3.2 TECH'!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>'[2]3.2 TECH'!F50</f>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>'[2]3.2 TECH'!G50</f>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f>'[2]3.2 TECH'!H50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>'[2]3.2 TECH'!I50</f>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>'[2]3.2 TECH'!A51</f>
+        <v>0</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'[2]3.2 TECH'!B51</f>
+        <v>CAR_PHEV</v>
+      </c>
+      <c r="C51">
+        <f>'[2]3.2 TECH'!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>'[2]3.2 TECH'!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>'[2]3.2 TECH'!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>'[2]3.2 TECH'!F51</f>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f>'[2]3.2 TECH'!G51</f>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f>'[2]3.2 TECH'!H51</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>'[2]3.2 TECH'!I51</f>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>'[2]3.2 TECH'!A52</f>
+        <v>0</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'[2]3.2 TECH'!B52</f>
+        <v>CAR_BEV</v>
+      </c>
+      <c r="C52">
+        <f>'[2]3.2 TECH'!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>'[2]3.2 TECH'!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>'[2]3.2 TECH'!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>'[2]3.2 TECH'!F52</f>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f>'[2]3.2 TECH'!G52</f>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f>'[2]3.2 TECH'!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>'[2]3.2 TECH'!I52</f>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>'[2]3.2 TECH'!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'[2]3.2 TECH'!B53</f>
+        <v>CAR_FUEL_CELL</v>
+      </c>
+      <c r="C53">
+        <f>'[2]3.2 TECH'!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>'[2]3.2 TECH'!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>'[2]3.2 TECH'!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>'[2]3.2 TECH'!F53</f>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f>'[2]3.2 TECH'!G53</f>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f>'[2]3.2 TECH'!H53</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>'[2]3.2 TECH'!I53</f>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>'[2]3.2 TECH'!A54</f>
+        <v>FREIGHT</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'[2]3.2 TECH'!B54</f>
+        <v>TRAIN_FREIGHT</v>
+      </c>
+      <c r="C54">
+        <f>'[2]3.2 TECH'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>'[2]3.2 TECH'!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>'[2]3.2 TECH'!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>'[2]3.2 TECH'!F54</f>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f>'[2]3.2 TECH'!G54</f>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f>'[2]3.2 TECH'!H54</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>'[2]3.2 TECH'!I54</f>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.92</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>'[2]3.2 TECH'!A55</f>
+        <v>0</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'[2]3.2 TECH'!B55</f>
+        <v>BOAT_FREIGHT_DIESEL</v>
+      </c>
+      <c r="C55">
+        <f>'[2]3.2 TECH'!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>'[2]3.2 TECH'!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>'[2]3.2 TECH'!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>'[2]3.2 TECH'!F55</f>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f>'[2]3.2 TECH'!G55</f>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f>'[2]3.2 TECH'!H55</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>'[2]3.2 TECH'!I55</f>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.92</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>'[2]3.2 TECH'!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'[2]3.2 TECH'!B56</f>
+        <v>BOAT_FREIGHT_NG</v>
+      </c>
+      <c r="C56">
+        <f>'[2]3.2 TECH'!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>'[2]3.2 TECH'!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>'[2]3.2 TECH'!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>'[2]3.2 TECH'!F56</f>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f>'[2]3.2 TECH'!G56</f>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f>'[2]3.2 TECH'!H56</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>'[2]3.2 TECH'!I56</f>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.92</v>
+      </c>
+      <c r="K56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>'[2]3.2 TECH'!A57</f>
+        <v>0</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'[2]3.2 TECH'!B57</f>
+        <v>TRUCK_DIESEL</v>
+      </c>
+      <c r="C57">
+        <f>'[2]3.2 TECH'!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>'[2]3.2 TECH'!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>'[2]3.2 TECH'!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>'[2]3.2 TECH'!F57</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f>'[2]3.2 TECH'!G57</f>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f>'[2]3.2 TECH'!H57</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>'[2]3.2 TECH'!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.92</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>'[2]3.2 TECH'!A58</f>
+        <v>0</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'[2]3.2 TECH'!B58</f>
+        <v>TRUCK_FUEL_CELL</v>
+      </c>
+      <c r="C58">
+        <f>'[2]3.2 TECH'!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>'[2]3.2 TECH'!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>'[2]3.2 TECH'!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>'[2]3.2 TECH'!F58</f>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f>'[2]3.2 TECH'!G58</f>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f>'[2]3.2 TECH'!H58</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>'[2]3.2 TECH'!I58</f>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>'[2]3.2 TECH'!A59</f>
+        <v>0</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'[2]3.2 TECH'!B59</f>
+        <v>TRUCK_NG</v>
+      </c>
+      <c r="C59">
+        <f>'[2]3.2 TECH'!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>'[2]3.2 TECH'!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>'[2]3.2 TECH'!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>'[2]3.2 TECH'!F59</f>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f>'[2]3.2 TECH'!G59</f>
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f>'[2]3.2 TECH'!H59</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>'[2]3.2 TECH'!I59</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>'[2]3.2 TECH'!A60</f>
+        <v>NON
+ENERGY</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'[2]3.2 TECH'!B60</f>
+        <v>NON_ENERGY_OIL</v>
+      </c>
+      <c r="C60">
+        <f>'[2]3.2 TECH'!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>'[2]3.2 TECH'!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>'[2]3.2 TECH'!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>'[2]3.2 TECH'!F60</f>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f>'[2]3.2 TECH'!G60</f>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f>'[2]3.2 TECH'!H60</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>'[2]3.2 TECH'!I60</f>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>'[2]3.2 TECH'!A61</f>
+        <v>0</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'[2]3.2 TECH'!B61</f>
+        <v>NON_ENERGY_NG</v>
+      </c>
+      <c r="C61">
+        <f>'[2]3.2 TECH'!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>'[2]3.2 TECH'!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>'[2]3.2 TECH'!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>'[2]3.2 TECH'!F61</f>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f>'[2]3.2 TECH'!G61</f>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f>'[2]3.2 TECH'!H61</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>'[2]3.2 TECH'!I61</f>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>'[2]3.2 TECH'!A62</f>
+        <v>INFRASTRUCTURE</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'[2]3.2 TECH'!B62</f>
+        <v>EFFICIENCY</v>
+      </c>
+      <c r="C62">
+        <f>'[2]3.2 TECH'!C62</f>
+        <v>3320</v>
+      </c>
+      <c r="D62">
+        <f>'[2]3.2 TECH'!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>'[2]3.2 TECH'!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>'[2]3.2 TECH'!F62</f>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f>'[2]3.2 TECH'!G62</f>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f>'[2]3.2 TECH'!H62</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>'[2]3.2 TECH'!I62</f>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>'[2]3.2 TECH'!A63</f>
+        <v>0</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'[2]3.2 TECH'!B63</f>
+        <v>DHN</v>
+      </c>
+      <c r="C63">
+        <f>'[2]3.2 TECH'!C63</f>
+        <v>825.88257327465112</v>
+      </c>
+      <c r="D63">
+        <f>'[2]3.2 TECH'!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>'[2]3.2 TECH'!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>'[2]3.2 TECH'!F63</f>
+        <v>60</v>
+      </c>
+      <c r="G63">
+        <f>'[2]3.2 TECH'!G63</f>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f>'[2]3.2 TECH'!H63</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>'[2]3.2 TECH'!I63</f>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>'[2]3.2 TECH'!A64</f>
+        <v>0</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'[2]3.2 TECH'!B64</f>
+        <v xml:space="preserve">GRID </v>
+      </c>
+      <c r="C64">
+        <f>'[2]3.2 TECH'!C64</f>
+        <v>74919.063546366742</v>
+      </c>
+      <c r="D64">
+        <f>'[2]3.2 TECH'!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>'[2]3.2 TECH'!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>'[2]3.2 TECH'!F64</f>
+        <v>80</v>
+      </c>
+      <c r="G64">
+        <f>'[2]3.2 TECH'!G64</f>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f>'[2]3.2 TECH'!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>'[2]3.2 TECH'!I64</f>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>'[2]3.2 TECH'!A65</f>
+        <v>0</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'[2]3.2 TECH'!B65</f>
+        <v>H2_ELECTROLYSIS</v>
+      </c>
+      <c r="C65">
+        <f>'[2]3.2 TECH'!C65</f>
+        <v>307.58497986702878</v>
+      </c>
+      <c r="D65">
+        <f>'[2]3.2 TECH'!D65</f>
+        <v>30.761307238505477</v>
+      </c>
+      <c r="E65">
+        <f>'[2]3.2 TECH'!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>'[2]3.2 TECH'!F65</f>
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <f>'[2]3.2 TECH'!G65</f>
+        <v>0.9</v>
+      </c>
+      <c r="H65">
+        <f>'[2]3.2 TECH'!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>'[2]3.2 TECH'!I65</f>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>'[2]3.2 TECH'!A66</f>
+        <v>0</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'[2]3.2 TECH'!B66</f>
+        <v>H2_NG</v>
+      </c>
+      <c r="C66">
+        <f>'[2]3.2 TECH'!C66</f>
+        <v>681.24356213128567</v>
+      </c>
+      <c r="D66">
+        <f>'[2]3.2 TECH'!D66</f>
+        <v>64.434872179042983</v>
+      </c>
+      <c r="E66">
+        <f>'[2]3.2 TECH'!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>'[2]3.2 TECH'!F66</f>
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <f>'[2]3.2 TECH'!G66</f>
+        <v>0.86</v>
+      </c>
+      <c r="H66">
+        <f>'[2]3.2 TECH'!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>'[2]3.2 TECH'!I66</f>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>'[2]3.2 TECH'!A67</f>
+        <v>0</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'[2]3.2 TECH'!B67</f>
+        <v>H2_BIOMASS</v>
+      </c>
+      <c r="C67">
+        <f>'[2]3.2 TECH'!C67</f>
+        <v>2525.3862721228579</v>
+      </c>
+      <c r="D67">
+        <f>'[2]3.2 TECH'!D67</f>
+        <v>195.70184474201704</v>
+      </c>
+      <c r="E67">
+        <f>'[2]3.2 TECH'!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>'[2]3.2 TECH'!F67</f>
+        <v>25</v>
+      </c>
+      <c r="G67">
+        <f>'[2]3.2 TECH'!G67</f>
+        <v>0.86</v>
+      </c>
+      <c r="H67">
+        <f>'[2]3.2 TECH'!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>'[2]3.2 TECH'!I67</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>'[2]3.2 TECH'!A68</f>
+        <v>0</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'[2]3.2 TECH'!B68</f>
+        <v>GASIFICATION_SNG</v>
+      </c>
+      <c r="C68">
+        <f>'[2]3.2 TECH'!C68</f>
+        <v>2743.8055997752599</v>
+      </c>
+      <c r="D68">
+        <f>'[2]3.2 TECH'!D68</f>
+        <v>139.93819646034271</v>
+      </c>
+      <c r="E68">
+        <f>'[2]3.2 TECH'!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>'[2]3.2 TECH'!F68</f>
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <f>'[2]3.2 TECH'!G68</f>
+        <v>0.85</v>
+      </c>
+      <c r="H68">
+        <f>'[2]3.2 TECH'!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>'[2]3.2 TECH'!I68</f>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>'[2]3.2 TECH'!A69</f>
+        <v>0</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'[2]3.2 TECH'!B69</f>
+        <v>PYROLYSIS</v>
+      </c>
+      <c r="C69">
+        <f>'[2]3.2 TECH'!C69</f>
+        <v>1344.2176233729749</v>
+      </c>
+      <c r="D69">
+        <f>'[2]3.2 TECH'!D69</f>
+        <v>67.206667290944836</v>
+      </c>
+      <c r="E69">
+        <f>'[2]3.2 TECH'!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>'[2]3.2 TECH'!F69</f>
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <f>'[2]3.2 TECH'!G69</f>
+        <v>0.85</v>
+      </c>
+      <c r="H69">
+        <f>'[2]3.2 TECH'!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>'[2]3.2 TECH'!I69</f>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>'[2]3.2 TECH'!A70</f>
+        <v>0</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'[2]3.2 TECH'!B70</f>
+        <v>ATM_CCS</v>
+      </c>
+      <c r="C70">
+        <f>'[2]3.2 TECH'!C70</f>
+        <v>5160</v>
+      </c>
+      <c r="D70">
+        <f>'[2]3.2 TECH'!D70</f>
+        <v>129.6</v>
+      </c>
+      <c r="E70">
+        <f>'[2]3.2 TECH'!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>'[2]3.2 TECH'!F70</f>
+        <v>40</v>
+      </c>
+      <c r="G70">
+        <f>'[2]3.2 TECH'!G70</f>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f>'[2]3.2 TECH'!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>'[2]3.2 TECH'!I70</f>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>'[2]3.2 TECH'!A71</f>
+        <v>0</v>
+      </c>
+      <c r="B71" t="str">
+        <f>'[2]3.2 TECH'!B71</f>
+        <v>INDUSTRY_CCS</v>
+      </c>
+      <c r="C71">
+        <f>'[2]3.2 TECH'!C71</f>
+        <v>2580</v>
+      </c>
+      <c r="D71">
+        <f>'[2]3.2 TECH'!D71</f>
+        <v>64.8</v>
+      </c>
+      <c r="E71">
+        <f>'[2]3.2 TECH'!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>'[2]3.2 TECH'!F71</f>
+        <v>40</v>
+      </c>
+      <c r="G71">
+        <f>'[2]3.2 TECH'!G71</f>
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f>'[2]3.2 TECH'!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>'[2]3.2 TECH'!I71</f>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>'[2]3.2 TECH'!A72</f>
+        <v>0</v>
+      </c>
+      <c r="B72" t="str">
+        <f>'[2]3.2 TECH'!B72</f>
+        <v>SYN_METHANOLATION</v>
+      </c>
+      <c r="C72">
+        <f>'[2]3.2 TECH'!C72</f>
+        <v>2750</v>
+      </c>
+      <c r="D72">
+        <f>'[2]3.2 TECH'!D72</f>
+        <v>54.5</v>
+      </c>
+      <c r="E72">
+        <f>'[2]3.2 TECH'!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>'[2]3.2 TECH'!F72</f>
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <f>'[2]3.2 TECH'!G72</f>
+        <v>0.95</v>
+      </c>
+      <c r="H72">
+        <f>'[2]3.2 TECH'!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>'[2]3.2 TECH'!I72</f>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>'[2]3.2 TECH'!A73</f>
+        <v>0</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'[2]3.2 TECH'!B73</f>
+        <v>SYN_METHANATION</v>
+      </c>
+      <c r="C73">
+        <f>'[2]3.2 TECH'!C73</f>
+        <v>1888</v>
+      </c>
+      <c r="D73">
+        <f>'[2]3.2 TECH'!D73</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E73">
+        <f>'[2]3.2 TECH'!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>'[2]3.2 TECH'!F73</f>
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <f>'[2]3.2 TECH'!G73</f>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f>'[2]3.2 TECH'!H73</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>'[2]3.2 TECH'!I73</f>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>'[2]3.2 TECH'!A74</f>
+        <v>0</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'[2]3.2 TECH'!B74</f>
+        <v>BIOMETHANATION</v>
+      </c>
+      <c r="C74">
+        <f>'[2]3.2 TECH'!C74</f>
+        <v>1661</v>
+      </c>
+      <c r="D74">
+        <f>'[2]3.2 TECH'!D74</f>
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <f>'[2]3.2 TECH'!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>'[2]3.2 TECH'!F74</f>
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <f>'[2]3.2 TECH'!G74</f>
+        <v>0.85</v>
+      </c>
+      <c r="H74">
+        <f>'[2]3.2 TECH'!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>'[2]3.2 TECH'!I74</f>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>'[2]3.2 TECH'!A75</f>
+        <v>0</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'[2]3.2 TECH'!B75</f>
+        <v>SLF_TO_DIESEL</v>
+      </c>
+      <c r="C75">
+        <f>'[2]3.2 TECH'!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>'[2]3.2 TECH'!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>'[2]3.2 TECH'!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>'[2]3.2 TECH'!F75</f>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f>'[2]3.2 TECH'!G75</f>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f>'[2]3.2 TECH'!H75</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>'[2]3.2 TECH'!I75</f>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>'[2]3.2 TECH'!A76</f>
+        <v>0</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'[2]3.2 TECH'!B76</f>
+        <v>SLF_TO_GASOLINE</v>
+      </c>
+      <c r="C76">
+        <f>'[2]3.2 TECH'!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>'[2]3.2 TECH'!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>'[2]3.2 TECH'!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>'[2]3.2 TECH'!F76</f>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>'[2]3.2 TECH'!G76</f>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f>'[2]3.2 TECH'!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>'[2]3.2 TECH'!I76</f>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>'[2]3.2 TECH'!A77</f>
+        <v>0</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'[2]3.2 TECH'!B77</f>
+        <v>SLF_TO_LFO</v>
+      </c>
+      <c r="C77">
+        <f>'[2]3.2 TECH'!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>'[2]3.2 TECH'!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>'[2]3.2 TECH'!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>'[2]3.2 TECH'!F77</f>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f>'[2]3.2 TECH'!G77</f>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f>'[2]3.2 TECH'!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>'[2]3.2 TECH'!I77</f>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>'[2]3.2 TECH'!A78</f>
+        <v>STORAGE</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'[2]3.2 TECH'!B78</f>
+        <v>BATT_LI</v>
+      </c>
+      <c r="C78">
+        <f>'[2]3.2 TECH'!C78</f>
+        <v>302</v>
+      </c>
+      <c r="D78">
+        <f>'[2]3.2 TECH'!D78</f>
+        <v>0.62</v>
+      </c>
+      <c r="E78">
+        <f>'[2]3.2 TECH'!E78</f>
+        <v>61.3</v>
+      </c>
+      <c r="F78">
+        <f>'[2]3.2 TECH'!F78</f>
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <f>'[2]3.2 TECH'!G78</f>
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f>'[2]3.2 TECH'!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>'[2]3.2 TECH'!I78</f>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>'[2]3.2 TECH'!A79</f>
+        <v>0</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'[2]3.2 TECH'!B79</f>
+        <v>BEV_BATT</v>
+      </c>
+      <c r="C79">
+        <f>'[2]3.2 TECH'!C79</f>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>'[2]3.2 TECH'!D79</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>'[2]3.2 TECH'!E79</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>'[2]3.2 TECH'!F79</f>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f>'[2]3.2 TECH'!G79</f>
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f>'[2]3.2 TECH'!H79</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>'[2]3.2 TECH'!I79</f>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>'[2]3.2 TECH'!A80</f>
+        <v>0</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'[2]3.2 TECH'!B80</f>
+        <v>PHEV_BATT</v>
+      </c>
+      <c r="C80">
+        <f>'[2]3.2 TECH'!C80</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>'[2]3.2 TECH'!D80</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>'[2]3.2 TECH'!E80</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>'[2]3.2 TECH'!F80</f>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f>'[2]3.2 TECH'!G80</f>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f>'[2]3.2 TECH'!H80</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>'[2]3.2 TECH'!I80</f>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>'[2]3.2 TECH'!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'[2]3.2 TECH'!B81</f>
+        <v>PHS</v>
+      </c>
+      <c r="C81">
+        <f>'[2]3.2 TECH'!C81</f>
+        <v>58.8</v>
+      </c>
+      <c r="D81">
+        <f>'[2]3.2 TECH'!D81</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>'[2]3.2 TECH'!E81</f>
+        <v>8.33</v>
+      </c>
+      <c r="F81">
+        <f>'[2]3.2 TECH'!F81</f>
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <f>'[2]3.2 TECH'!G81</f>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <f>'[2]3.2 TECH'!H81</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>'[2]3.2 TECH'!I81</f>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>'[2]3.2 TECH'!A82</f>
+        <v>0</v>
+      </c>
+      <c r="B82" t="str">
+        <f>'[2]3.2 TECH'!B82</f>
+        <v xml:space="preserve">TS_DEC_DIRECT_ELEC </v>
+      </c>
+      <c r="C82">
+        <f>'[2]3.2 TECH'!C82</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D82">
+        <f>'[2]3.2 TECH'!D82</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E82">
+        <f>'[2]3.2 TECH'!E82</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>'[2]3.2 TECH'!F82</f>
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <f>'[2]3.2 TECH'!G82</f>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f>'[2]3.2 TECH'!H82</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>'[2]3.2 TECH'!I82</f>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>'[2]3.2 TECH'!A83</f>
+        <v>0</v>
+      </c>
+      <c r="B83" t="str">
+        <f>'[2]3.2 TECH'!B83</f>
+        <v xml:space="preserve">TS_DEC_HP_ELEC </v>
+      </c>
+      <c r="C83">
+        <f>'[2]3.2 TECH'!C83</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D83">
+        <f>'[2]3.2 TECH'!D83</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E83">
+        <f>'[2]3.2 TECH'!E83</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>'[2]3.2 TECH'!F83</f>
+        <v>25</v>
+      </c>
+      <c r="G83">
+        <f>'[2]3.2 TECH'!G83</f>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f>'[2]3.2 TECH'!H83</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>'[2]3.2 TECH'!I83</f>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>'[2]3.2 TECH'!A84</f>
+        <v>0</v>
+      </c>
+      <c r="B84" t="str">
+        <f>'[2]3.2 TECH'!B84</f>
+        <v xml:space="preserve">TS_DEC_THHP_GAS </v>
+      </c>
+      <c r="C84">
+        <f>'[2]3.2 TECH'!C84</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D84">
+        <f>'[2]3.2 TECH'!D84</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E84">
+        <f>'[2]3.2 TECH'!E84</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>'[2]3.2 TECH'!F84</f>
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <f>'[2]3.2 TECH'!G84</f>
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f>'[2]3.2 TECH'!H84</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>'[2]3.2 TECH'!I84</f>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>'[2]3.2 TECH'!A85</f>
+        <v>0</v>
+      </c>
+      <c r="B85" t="str">
+        <f>'[2]3.2 TECH'!B85</f>
+        <v xml:space="preserve">TS_DEC_COGEN_GAS </v>
+      </c>
+      <c r="C85">
+        <f>'[2]3.2 TECH'!C85</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D85">
+        <f>'[2]3.2 TECH'!D85</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E85">
+        <f>'[2]3.2 TECH'!E85</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>'[2]3.2 TECH'!F85</f>
+        <v>25</v>
+      </c>
+      <c r="G85">
+        <f>'[2]3.2 TECH'!G85</f>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f>'[2]3.2 TECH'!H85</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>'[2]3.2 TECH'!I85</f>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>'[2]3.2 TECH'!A86</f>
+        <v>0</v>
+      </c>
+      <c r="B86" t="str">
+        <f>'[2]3.2 TECH'!B86</f>
+        <v xml:space="preserve">TS_DEC_COGEN_OIL </v>
+      </c>
+      <c r="C86">
+        <f>'[2]3.2 TECH'!C86</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D86">
+        <f>'[2]3.2 TECH'!D86</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E86">
+        <f>'[2]3.2 TECH'!E86</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>'[2]3.2 TECH'!F86</f>
+        <v>25</v>
+      </c>
+      <c r="G86">
+        <f>'[2]3.2 TECH'!G86</f>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f>'[2]3.2 TECH'!H86</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>'[2]3.2 TECH'!I86</f>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>'[2]3.2 TECH'!A87</f>
+        <v>0</v>
+      </c>
+      <c r="B87" t="str">
+        <f>'[2]3.2 TECH'!B87</f>
+        <v xml:space="preserve">TS_DEC_ADVCOGEN_GAS </v>
+      </c>
+      <c r="C87">
+        <f>'[2]3.2 TECH'!C87</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D87">
+        <f>'[2]3.2 TECH'!D87</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E87">
+        <f>'[2]3.2 TECH'!E87</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>'[2]3.2 TECH'!F87</f>
+        <v>25</v>
+      </c>
+      <c r="G87">
+        <f>'[2]3.2 TECH'!G87</f>
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f>'[2]3.2 TECH'!H87</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>'[2]3.2 TECH'!I87</f>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>'[2]3.2 TECH'!A88</f>
+        <v>0</v>
+      </c>
+      <c r="B88" t="str">
+        <f>'[2]3.2 TECH'!B88</f>
+        <v xml:space="preserve">TS_DEC_ADVCOGEN_H2 </v>
+      </c>
+      <c r="C88">
+        <f>'[2]3.2 TECH'!C88</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D88">
+        <f>'[2]3.2 TECH'!D88</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E88">
+        <f>'[2]3.2 TECH'!E88</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>'[2]3.2 TECH'!F88</f>
+        <v>25</v>
+      </c>
+      <c r="G88">
+        <f>'[2]3.2 TECH'!G88</f>
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f>'[2]3.2 TECH'!H88</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>'[2]3.2 TECH'!I88</f>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>'[2]3.2 TECH'!A89</f>
+        <v>0</v>
+      </c>
+      <c r="B89" t="str">
+        <f>'[2]3.2 TECH'!B89</f>
+        <v xml:space="preserve">TS_DEC_BOILER_GAS </v>
+      </c>
+      <c r="C89">
+        <f>'[2]3.2 TECH'!C89</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D89">
+        <f>'[2]3.2 TECH'!D89</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E89">
+        <f>'[2]3.2 TECH'!E89</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>'[2]3.2 TECH'!F89</f>
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <f>'[2]3.2 TECH'!G89</f>
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f>'[2]3.2 TECH'!H89</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>'[2]3.2 TECH'!I89</f>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>'[2]3.2 TECH'!A90</f>
+        <v>0</v>
+      </c>
+      <c r="B90" t="str">
+        <f>'[2]3.2 TECH'!B90</f>
+        <v xml:space="preserve">TS_DEC_BOILER_WOOD </v>
+      </c>
+      <c r="C90">
+        <f>'[2]3.2 TECH'!C90</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D90">
+        <f>'[2]3.2 TECH'!D90</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E90">
+        <f>'[2]3.2 TECH'!E90</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>'[2]3.2 TECH'!F90</f>
+        <v>25</v>
+      </c>
+      <c r="G90">
+        <f>'[2]3.2 TECH'!G90</f>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f>'[2]3.2 TECH'!H90</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>'[2]3.2 TECH'!I90</f>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>'[2]3.2 TECH'!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B91" t="str">
+        <f>'[2]3.2 TECH'!B91</f>
+        <v xml:space="preserve">TS_DEC_BOILER_OIL </v>
+      </c>
+      <c r="C91">
+        <f>'[2]3.2 TECH'!C91</f>
+        <v>18.971813840247215</v>
+      </c>
+      <c r="D91">
+        <f>'[2]3.2 TECH'!D91</f>
+        <v>0.13280269688173049</v>
+      </c>
+      <c r="E91">
+        <f>'[2]3.2 TECH'!E91</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>'[2]3.2 TECH'!F91</f>
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <f>'[2]3.2 TECH'!G91</f>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f>'[2]3.2 TECH'!H91</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>'[2]3.2 TECH'!I91</f>
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>'[2]3.2 TECH'!A92</f>
+        <v>0</v>
+      </c>
+      <c r="B92" t="str">
+        <f>'[2]3.2 TECH'!B92</f>
+        <v>TS_DHN_DAILY</v>
+      </c>
+      <c r="C92">
+        <f>'[2]3.2 TECH'!C92</f>
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <f>'[2]3.2 TECH'!D92</f>
+        <v>8.6E-3</v>
+      </c>
+      <c r="E92">
+        <f>'[2]3.2 TECH'!E92</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>'[2]3.2 TECH'!F92</f>
+        <v>40</v>
+      </c>
+      <c r="G92">
+        <f>'[2]3.2 TECH'!G92</f>
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <f>'[2]3.2 TECH'!H92</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>'[2]3.2 TECH'!I92</f>
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>'[2]3.2 TECH'!A93</f>
+        <v>0</v>
+      </c>
+      <c r="B93" t="str">
+        <f>'[2]3.2 TECH'!B93</f>
+        <v>TS_DHN_SEASONAL</v>
+      </c>
+      <c r="C93">
+        <f>'[2]3.2 TECH'!C93</f>
+        <v>0.54</v>
+      </c>
+      <c r="D93">
+        <f>'[2]3.2 TECH'!D93</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E93">
+        <f>'[2]3.2 TECH'!E93</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>'[2]3.2 TECH'!F93</f>
+        <v>25</v>
+      </c>
+      <c r="G93">
+        <f>'[2]3.2 TECH'!G93</f>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <f>'[2]3.2 TECH'!H93</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>'[2]3.2 TECH'!I93</f>
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>'[2]3.2 TECH'!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B94" t="str">
+        <f>'[2]3.2 TECH'!B94</f>
+        <v>SEASONAL_NG</v>
+      </c>
+      <c r="C94">
+        <f>'[2]3.2 TECH'!C94</f>
+        <v>5.1158000000000002E-2</v>
+      </c>
+      <c r="D94">
+        <f>'[2]3.2 TECH'!D94</f>
+        <v>1.3091641490433031E-3</v>
+      </c>
+      <c r="E94">
+        <f>'[2]3.2 TECH'!E94</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>'[2]3.2 TECH'!F94</f>
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <f>'[2]3.2 TECH'!G94</f>
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f>'[2]3.2 TECH'!H94</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>'[2]3.2 TECH'!I94</f>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>'[2]3.2 TECH'!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B95" t="str">
+        <f>'[2]3.2 TECH'!B95</f>
+        <v>SEASONAL_H2</v>
+      </c>
+      <c r="C95">
+        <f>'[2]3.2 TECH'!C95</f>
+        <v>6.19</v>
+      </c>
+      <c r="D95">
+        <f>'[2]3.2 TECH'!D95</f>
+        <v>0.03</v>
+      </c>
+      <c r="E95">
+        <f>'[2]3.2 TECH'!E95</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>'[2]3.2 TECH'!F95</f>
+        <v>20</v>
+      </c>
+      <c r="G95">
+        <f>'[2]3.2 TECH'!G95</f>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <f>'[2]3.2 TECH'!H95</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>'[2]3.2 TECH'!I95</f>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>'[2]3.2 TECH'!A96</f>
+        <v>0</v>
+      </c>
+      <c r="B96" t="str">
+        <f>'[2]3.2 TECH'!B96</f>
+        <v>CO2_STORAGE</v>
+      </c>
+      <c r="C96">
+        <f>'[2]3.2 TECH'!C96</f>
+        <v>49.5</v>
+      </c>
+      <c r="D96">
+        <f>'[2]3.2 TECH'!D96</f>
+        <v>0.495</v>
+      </c>
+      <c r="E96">
+        <f>'[2]3.2 TECH'!E96</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f>'[2]3.2 TECH'!F96</f>
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <f>'[2]3.2 TECH'!G96</f>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f>'[2]3.2 TECH'!H96</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>'[2]3.2 TECH'!I96</f>
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>'[2]3.2 TECH'!A97</f>
+        <v>0</v>
+      </c>
+      <c r="B97" t="str">
+        <f>'[2]3.2 TECH'!B97</f>
+        <v>SLF_STO</v>
+      </c>
+      <c r="C97">
+        <f>'[2]3.2 TECH'!C97</f>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="D97">
+        <f>'[2]3.2 TECH'!D97</f>
+        <v>3.97E-4</v>
+      </c>
+      <c r="E97">
+        <f>'[2]3.2 TECH'!E97</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f>'[2]3.2 TECH'!F97</f>
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <f>'[2]3.2 TECH'!G97</f>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f>'[2]3.2 TECH'!H97</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>'[2]3.2 TECH'!I97</f>
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA587964-6115-495A-B3A0-3C7BE5F054AB}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
@@ -27984,11 +35854,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A72B9-AB7D-4073-A7B6-8986B1A24269}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -30480,7 +38350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3405A57-B1B6-4531-B491-8327EE84791E}">
   <dimension ref="A1:E21"/>
   <sheetViews>
